--- a/sequences/19_localizer.xlsx
+++ b/sequences/19_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>car</t>
   </si>
   <si>
     <t>dog</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>face</t>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
+    <t>face/face011.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>dog/dog001.png</t>
+  </si>
+  <si>
+    <t>car/car011.png</t>
+  </si>
+  <si>
+    <t>dog/dog015.png</t>
+  </si>
+  <si>
+    <t>flower/flower015.png</t>
+  </si>
+  <si>
+    <t>face/face007.png</t>
+  </si>
+  <si>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>car/car008.png</t>
+  </si>
+  <si>
+    <t>face/face006.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
+    <t>dog/dog006.png</t>
+  </si>
+  <si>
+    <t>car/car009.png</t>
+  </si>
+  <si>
+    <t>car/car012.png</t>
+  </si>
+  <si>
+    <t>flower/flower002.png</t>
+  </si>
+  <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>flower/flower010.png</t>
+  </si>
+  <si>
+    <t>dog/dog005.png</t>
+  </si>
+  <si>
+    <t>dog/dog014.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
+  </si>
+  <si>
+    <t>car/car014.png</t>
+  </si>
+  <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
+  </si>
+  <si>
+    <t>dog/dog004.png</t>
   </si>
   <si>
     <t>car/car015.png</t>
   </si>
   <si>
+    <t>face/face014.png</t>
+  </si>
+  <si>
+    <t>car/car006.png</t>
+  </si>
+  <si>
+    <t>flower/flower000.png</t>
+  </si>
+  <si>
+    <t>flower/flower008.png</t>
+  </si>
+  <si>
+    <t>face/face009.png</t>
+  </si>
+  <si>
+    <t>flower/flower004.png</t>
+  </si>
+  <si>
+    <t>flower/flower009.png</t>
+  </si>
+  <si>
+    <t>flower/flower013.png</t>
+  </si>
+  <si>
+    <t>car/car004.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
+  </si>
+  <si>
+    <t>face/face004.png</t>
+  </si>
+  <si>
+    <t>dog/dog002.png</t>
+  </si>
+  <si>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
+  </si>
+  <si>
+    <t>dog/dog008.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
+  </si>
+  <si>
+    <t>flower/flower007.png</t>
+  </si>
+  <si>
+    <t>dog/dog003.png</t>
+  </si>
+  <si>
+    <t>face/face013.png</t>
+  </si>
+  <si>
+    <t>face/face002.png</t>
+  </si>
+  <si>
+    <t>face/face000.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
+    <t>car/car003.png</t>
+  </si>
+  <si>
+    <t>car/car013.png</t>
+  </si>
+  <si>
+    <t>car/car002.png</t>
+  </si>
+  <si>
+    <t>face/face015.png</t>
+  </si>
+  <si>
     <t>dog/dog013.png</t>
   </si>
   <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>dog/dog012.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
+  </si>
+  <si>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
+    <t>dog/dog010.png</t>
   </si>
   <si>
     <t>car/car007.png</t>
   </si>
   <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
+    <t>flower/flower006.png</t>
   </si>
   <si>
     <t>car/car005.png</t>
   </si>
   <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
     <t>face/face010.png</t>
   </si>
   <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
+    <t>flower/flower031.png</t>
+  </si>
+  <si>
+    <t>dog/dog019.png</t>
+  </si>
+  <si>
+    <t>car/car026.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>face/face025.png</t>
+  </si>
+  <si>
+    <t>face/face029.png</t>
+  </si>
+  <si>
+    <t>dog/dog023.png</t>
+  </si>
+  <si>
+    <t>car/car031.png</t>
+  </si>
+  <si>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>car/car018.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
+  </si>
+  <si>
+    <t>car/car019.png</t>
+  </si>
+  <si>
+    <t>dog/dog016.png</t>
+  </si>
+  <si>
+    <t>flower/flower021.png</t>
+  </si>
+  <si>
+    <t>flower/flower017.png</t>
+  </si>
+  <si>
+    <t>flower/flower018.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
+    <t>face/face031.png</t>
+  </si>
+  <si>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>face/face016.png</t>
+  </si>
+  <si>
+    <t>dog/dog028.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>car/car023.png</t>
+  </si>
+  <si>
+    <t>face/face026.png</t>
+  </si>
+  <si>
+    <t>flower/flower023.png</t>
+  </si>
+  <si>
+    <t>dog/dog031.png</t>
+  </si>
+  <si>
+    <t>flower/flower020.png</t>
+  </si>
+  <si>
+    <t>car/car028.png</t>
+  </si>
+  <si>
+    <t>dog/dog020.png</t>
+  </si>
+  <si>
+    <t>face/face019.png</t>
+  </si>
+  <si>
+    <t>flower/flower028.png</t>
+  </si>
+  <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
+    <t>face/face023.png</t>
+  </si>
+  <si>
+    <t>face/face024.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
+  </si>
+  <si>
+    <t>flower/flower016.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>face/face028.png</t>
+  </si>
+  <si>
+    <t>car/car021.png</t>
+  </si>
+  <si>
+    <t>flower/flower030.png</t>
+  </si>
+  <si>
+    <t>face/face022.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
+  </si>
+  <si>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>face/face020.png</t>
+  </si>
+  <si>
+    <t>flower/flower022.png</t>
+  </si>
+  <si>
+    <t>face/face030.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>face/face021.png</t>
+  </si>
+  <si>
+    <t>face/face027.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>car/car020.png</t>
+  </si>
+  <si>
+    <t>flower/flower025.png</t>
+  </si>
+  <si>
+    <t>car/car027.png</t>
+  </si>
+  <si>
+    <t>car/car017.png</t>
+  </si>
+  <si>
+    <t>face/face018.png</t>
+  </si>
+  <si>
+    <t>car/car022.png</t>
+  </si>
+  <si>
+    <t>dog/dog025.png</t>
   </si>
   <si>
     <t>dog/dog024.png</t>
   </si>
   <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
     <t>dog/dog022.png</t>
   </si>
   <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
+    <t>face/face036.png</t>
+  </si>
+  <si>
+    <t>face/face032.png</t>
+  </si>
+  <si>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>face/face033.png</t>
+  </si>
+  <si>
+    <t>dog/dog041.png</t>
+  </si>
+  <si>
+    <t>flower/flower038.png</t>
+  </si>
+  <si>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>face/face038.png</t>
+  </si>
+  <si>
+    <t>dog/dog034.png</t>
+  </si>
+  <si>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>car/car045.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
+    <t>dog/dog036.png</t>
+  </si>
+  <si>
+    <t>face/face035.png</t>
+  </si>
+  <si>
+    <t>flower/flower032.png</t>
+  </si>
+  <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>car/car033.png</t>
+  </si>
+  <si>
+    <t>dog/dog037.png</t>
+  </si>
+  <si>
+    <t>face/face039.png</t>
+  </si>
+  <si>
+    <t>face/face034.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>car/car047.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>flower/flower034.png</t>
+  </si>
+  <si>
+    <t>car/car035.png</t>
+  </si>
+  <si>
+    <t>dog/dog040.png</t>
+  </si>
+  <si>
+    <t>car/car038.png</t>
+  </si>
+  <si>
+    <t>face/face042.png</t>
+  </si>
+  <si>
+    <t>dog/dog038.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
+  </si>
+  <si>
+    <t>face/face046.png</t>
+  </si>
+  <si>
+    <t>flower/flower036.png</t>
+  </si>
+  <si>
+    <t>flower/flower046.png</t>
+  </si>
+  <si>
+    <t>car/car036.png</t>
+  </si>
+  <si>
+    <t>face/face043.png</t>
+  </si>
+  <si>
+    <t>car/car043.png</t>
+  </si>
+  <si>
+    <t>car/car040.png</t>
+  </si>
+  <si>
+    <t>car/car044.png</t>
+  </si>
+  <si>
+    <t>face/face037.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>car/car032.png</t>
+  </si>
+  <si>
+    <t>flower/flower033.png</t>
+  </si>
+  <si>
+    <t>face/face041.png</t>
   </si>
   <si>
     <t>flower/flower044.png</t>
   </si>
   <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>car/car039.png</t>
+  </si>
+  <si>
+    <t>flower/flower040.png</t>
+  </si>
+  <si>
+    <t>car/car041.png</t>
+  </si>
+  <si>
+    <t>flower/flower042.png</t>
+  </si>
+  <si>
+    <t>flower/flower041.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>flower/flower035.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
+  </si>
+  <si>
+    <t>dog/dog044.png</t>
+  </si>
+  <si>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
+    <t>dog/dog039.png</t>
+  </si>
+  <si>
+    <t>dog/dog042.png</t>
   </si>
   <si>
     <t>face/face047.png</t>
   </si>
   <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
     <t>car/car037.png</t>
   </si>
   <si>
-    <t>face/face035.png</t>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>dog/dog053.png</t>
+  </si>
+  <si>
+    <t>dog/dog062.png</t>
+  </si>
+  <si>
+    <t>car/car051.png</t>
+  </si>
+  <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>flower/flower062.png</t>
+  </si>
+  <si>
+    <t>dog/dog063.png</t>
+  </si>
+  <si>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>face/face060.png</t>
+  </si>
+  <si>
+    <t>car/car062.png</t>
+  </si>
+  <si>
+    <t>car/car048.png</t>
+  </si>
+  <si>
+    <t>dog/dog054.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>flower/flower059.png</t>
+  </si>
+  <si>
+    <t>flower/flower055.png</t>
+  </si>
+  <si>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>car/car061.png</t>
+  </si>
+  <si>
+    <t>face/face056.png</t>
+  </si>
+  <si>
+    <t>flower/flower061.png</t>
+  </si>
+  <si>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
+    <t>flower/flower052.png</t>
+  </si>
+  <si>
+    <t>flower/flower048.png</t>
+  </si>
+  <si>
+    <t>face/face052.png</t>
+  </si>
+  <si>
+    <t>face/face049.png</t>
+  </si>
+  <si>
+    <t>dog/dog050.png</t>
+  </si>
+  <si>
+    <t>car/car056.png</t>
   </si>
   <si>
     <t>face/face063.png</t>
   </si>
   <si>
+    <t>car/car050.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
+  </si>
+  <si>
+    <t>dog/dog057.png</t>
+  </si>
+  <si>
+    <t>flower/flower053.png</t>
+  </si>
+  <si>
+    <t>dog/dog060.png</t>
+  </si>
+  <si>
+    <t>car/car060.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
+    <t>dog/dog049.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
+  </si>
+  <si>
+    <t>flower/flower054.png</t>
+  </si>
+  <si>
+    <t>face/face054.png</t>
+  </si>
+  <si>
+    <t>dog/dog048.png</t>
+  </si>
+  <si>
+    <t>face/face057.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
+  </si>
+  <si>
+    <t>car/car054.png</t>
+  </si>
+  <si>
+    <t>dog/dog051.png</t>
+  </si>
+  <si>
+    <t>flower/flower051.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
+  </si>
+  <si>
+    <t>dog/dog056.png</t>
+  </si>
+  <si>
+    <t>car/car049.png</t>
+  </si>
+  <si>
     <t>car/car063.png</t>
   </si>
   <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
+    <t>face/face053.png</t>
+  </si>
+  <si>
+    <t>face/face059.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
+    <t>car/car052.png</t>
+  </si>
+  <si>
+    <t>car/car058.png</t>
+  </si>
+  <si>
+    <t>car/car057.png</t>
+  </si>
+  <si>
+    <t>flower/flower058.png</t>
+  </si>
+  <si>
+    <t>face/face051.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
   </si>
   <si>
     <t>car/car055.png</t>
   </si>
   <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
+    <t>flower/flower060.png</t>
+  </si>
+  <si>
+    <t>car/car059.png</t>
+  </si>
+  <si>
+    <t>flower/flower050.png</t>
   </si>
   <si>
     <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.644131287761641</v>
+        <v>1.600235719766963</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.328710312710084</v>
+        <v>1.659360280037042</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.651466183320796</v>
+        <v>1.32432051652755</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.583711949934699</v>
+        <v>1.501635016182534</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1.49410986037611</v>
+        <v>1.183579277914188</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.522946967494532</v>
+        <v>1.589536033553415</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.617342156026981</v>
+        <v>1.438152762068498</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.553895411052117</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.680431763316898</v>
+        <v>1.487194084120875</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.356835553517625</v>
+        <v>1.217197747791978</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.664743514104088</v>
+        <v>1.722651113189809</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.562754016942021</v>
+        <v>1.368103197741204</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.477839316429318</v>
+        <v>1.455056367471758</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.393649584321642</v>
+        <v>1.447041676380633</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.377468408434995</v>
+        <v>1.611350895720177</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1.626740995476386</v>
+        <v>1.400699654917926</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.423632959954185</v>
+        <v>1.647949675183821</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.387859154904832</v>
+        <v>1.426571249501039</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.649916092324947</v>
+        <v>1.688517387285464</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1.430190279445247</v>
+        <v>1.47389537915632</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.529232139216999</v>
+        <v>1.659383180103089</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.418212086595568</v>
+        <v>1.347800062041399</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.486760077557758</v>
+        <v>1.442570083377175</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.609636286310793</v>
+        <v>1.573934313437289</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.343844894712345</v>
+        <v>1.236039356179638</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.589023824880471</v>
+        <v>1.408102064225504</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.479628742994167</v>
+        <v>1.475975375754488</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.657641147531639</v>
+        <v>1.360129758793128</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.432805489720946</v>
+        <v>1.602978648760226</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1.605224490356383</v>
+        <v>1.646470916646063</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.6039598249589</v>
+        <v>1.632756727786767</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.382962174565943</v>
+        <v>1.564705338754363</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.576425061094793</v>
+        <v>1.236921731828444</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.709723317022098</v>
+        <v>1.622190674978737</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.502924760849892</v>
+        <v>1.543350727761018</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.659504771326775</v>
+        <v>1.8036224437618</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.541810266837042</v>
+        <v>1.370302383264391</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.462066197718853</v>
+        <v>1.560767219550592</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.579778548560004</v>
+        <v>1.496945537295206</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.610385702624862</v>
+        <v>1.38836539830774</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.39947801520355</v>
+        <v>1.371871687175808</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1.72857357729585</v>
+        <v>1.754902008219013</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.393447957955581</v>
+        <v>1.434574506723258</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1.463142338949281</v>
+        <v>1.458576674777903</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.63387021801563</v>
+        <v>1.464612085033169</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>1.57051365795656</v>
+        <v>1.656862795167965</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1.466317476330443</v>
+        <v>1.2681223499078</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.67977780917536</v>
+        <v>1.4550290303621</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.463695673794703</v>
+        <v>1.448761643515537</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.279720615170103</v>
+        <v>1.563852687675823</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.421649393927792</v>
+        <v>1.319353698809491</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1.349977173595446</v>
+        <v>1.636618576696956</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.492797625862543</v>
+        <v>1.458538817201449</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.638555388541733</v>
+        <v>1.623998833230804</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.4977194306994</v>
+        <v>1.335983100661342</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.526951025606113</v>
+        <v>1.191135421431206</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>1.606788240792828</v>
+        <v>1.527056589121812</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>1.483218073710244</v>
+        <v>1.4862172244857</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.464061324578555</v>
+        <v>1.555093406720609</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>1.698113776923452</v>
+        <v>1.379629963755485</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.46634968757407</v>
+        <v>1.433551037166297</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.23649890667226</v>
+        <v>1.327019219591208</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.483217902139657</v>
+        <v>1.389826201190119</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.426453564154762</v>
+        <v>1.633191124239333</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.430395670145362</v>
+        <v>1.240374958938373</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>1.522741688369992</v>
+        <v>1.580077292018107</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1.52962028164902</v>
+        <v>1.866555911039647</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.335029847386244</v>
+        <v>1.767956650596118</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>1.584935238393182</v>
+        <v>1.608953472960536</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.537713773770329</v>
+        <v>1.408328846577437</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>1.435668450011662</v>
+        <v>1.316478182266839</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.301956737230593</v>
+        <v>1.474151039032509</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>1.449343750261623</v>
+        <v>1.682264128011041</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1.559903242566246</v>
+        <v>1.583376648674204</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.737300389751636</v>
+        <v>1.402257858093</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.734469624472051</v>
+        <v>1.70073335461436</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.554130427111866</v>
+        <v>1.37798484780967</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.704444613140526</v>
+        <v>1.294662979616894</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.565159268901727</v>
+        <v>1.773309964579884</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.615461091849183</v>
+        <v>1.566978784116921</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.689851648927216</v>
+        <v>1.401151130661813</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.381047685205924</v>
+        <v>1.304048112807312</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.404308197465533</v>
+        <v>1.50656516989835</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.499921700180346</v>
+        <v>1.490963326611415</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.409739324330994</v>
+        <v>1.673070532194381</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>1.684501874706804</v>
+        <v>1.388279407233033</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.511682195866277</v>
+        <v>1.611047978001957</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.806477463624131</v>
+        <v>1.577643937667452</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1.4372455109757</v>
+        <v>1.756168188192681</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.477439590834968</v>
+        <v>1.681665037749286</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.450572868292342</v>
+        <v>1.365832347616752</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>1.487535805006909</v>
+        <v>1.486986956216459</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.301672695619528</v>
+        <v>1.449309562327429</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.554764394792229</v>
+        <v>1.426334457678113</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.650116233370616</v>
+        <v>1.466766035171654</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.718595373693618</v>
+        <v>1.481954154747041</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <v>1.228625000792918</v>
+        <v>1.477773574766134</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.612296909531592</v>
+        <v>1.239842251318464</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>1.721121987103898</v>
+        <v>1.531030832780769</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.815474079295762</v>
+        <v>1.643525179580559</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.315565598112667</v>
+        <v>1.54512505960089</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.755129390045249</v>
+        <v>1.598177936445522</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.443924797315134</v>
+        <v>1.588714491134565</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.563312180277874</v>
+        <v>1.509602151215074</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.436781317186311</v>
+        <v>1.675271446858282</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1.523500460081023</v>
+        <v>1.615549822154237</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.027423699512302</v>
+        <v>1.87290822284574</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.409247125816707</v>
+        <v>1.435541866910338</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.405064683278584</v>
+        <v>1.484015278040536</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.418140600687046</v>
+        <v>1.347891452394906</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.316021381269845</v>
+        <v>1.600383567460982</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.501906970901883</v>
+        <v>1.563145117446984</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.455382246779174</v>
+        <v>1.590114517478942</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.436092716851965</v>
+        <v>1.07879330224259</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.670444992049982</v>
+        <v>1.367670388559159</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.799450604867033</v>
+        <v>1.633853799608621</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.461132636697018</v>
+        <v>1.293058914690835</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>1.671149735218762</v>
+        <v>1.605779075424758</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.575987509232338</v>
+        <v>1.469574568709618</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.603459669626595</v>
+        <v>1.442767551069242</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.368303589726309</v>
+        <v>1.939982479778638</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.484636904160299</v>
+        <v>1.662968344155616</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.46405858457093</v>
+        <v>1.839726995072381</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.415916772712647</v>
+        <v>1.433229196699643</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.636202214013705</v>
+        <v>1.172220524002333</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.403491737821664</v>
+        <v>1.280524769191049</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.437250474509866</v>
+        <v>1.052433575563817</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.706945272737562</v>
+        <v>1.616705308604416</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.437242159916364</v>
+        <v>1.363760931469707</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.456243852387766</v>
+        <v>1.493995239508848</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132">
-        <v>1.664489699331342</v>
+        <v>1.709003673719314</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>1.569416159296446</v>
+        <v>1.447233396927236</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.606962771050321</v>
+        <v>1.529140330322934</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>1.618915754951795</v>
+        <v>1.964336462364976</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.324167726608519</v>
+        <v>1.410495343811464</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.396557238996431</v>
+        <v>1.143698712451005</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.410378573445773</v>
+        <v>1.549493080987248</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.295490475685631</v>
+        <v>1.439098785397091</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.658122370762732</v>
+        <v>1.471192051873293</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>1.743681321217615</v>
+        <v>1.519531953242437</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.485316549069741</v>
+        <v>1.420099279928687</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1.524769277188233</v>
+        <v>1.508890382853552</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.639767524288013</v>
+        <v>1.667523915437053</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
-        <v>1.369323640960859</v>
+        <v>1.302234224127897</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.235357575619547</v>
+        <v>1.604815625668377</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.55167834244784</v>
+        <v>1.601345599413838</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>1.57912616966998</v>
+        <v>1.317731040545318</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.496123950431102</v>
+        <v>1.473511859418614</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4163,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>1.328149726552246</v>
+        <v>1.581649320664817</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.665672474171753</v>
+        <v>1.518599822515824</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.35963326395366</v>
+        <v>1.37968194723366</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1.711057856209504</v>
+        <v>1.587244358151376</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.596174159957319</v>
+        <v>1.545155055922797</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>1.544347577953563</v>
+        <v>1.568313547358143</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.451377089571303</v>
+        <v>1.608823875946199</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.504030988259769</v>
+        <v>1.395473111084461</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.635872672191634</v>
+        <v>1.413172778916749</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.386804979814377</v>
+        <v>1.593488162320181</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>1.374138756205595</v>
+        <v>1.46520473901704</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.5845292272654</v>
+        <v>1.541482944281995</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.741143826174028</v>
+        <v>1.542660387584283</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.67580141931632</v>
+        <v>1.355244814180811</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.629437012654636</v>
+        <v>1.599852273633934</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.244794415358663</v>
+        <v>1.412787829216255</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.394026507471928</v>
+        <v>1.337657743049488</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.435044073644965</v>
+        <v>1.424319891673517</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.527868787805051</v>
+        <v>1.496094749546464</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.379486094625063</v>
+        <v>1.643147648873604</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.405827903686117</v>
+        <v>1.714076659190214</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>2</v>
+        <v>1.464729509242362</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.279726098630264</v>
+        <v>1.503504919884863</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.368154922042879</v>
+        <v>1.561503197676769</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.682701064499807</v>
+        <v>1.686231879720975</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.520218872185847</v>
+        <v>1.735729326773663</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.553865302156609</v>
+        <v>1.310886322319748</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.399470950673804</v>
+        <v>1.276337782907839</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.651393821251284</v>
+        <v>1.149409800907171</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.276254928627772</v>
+        <v>1.428985847193311</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.533689493582782</v>
+        <v>1.621098865585651</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.426709609477818</v>
+        <v>1.439671821595364</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.595171627079121</v>
+        <v>1.471051267860875</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="F183">
-        <v>1.520816113388724</v>
+        <v>1.58720356093907</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.593858690312526</v>
+        <v>1.563387594473885</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>1.201833123897037</v>
+        <v>1.543476114101975</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.500883449705253</v>
+        <v>1.533918204188821</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.313134398495126</v>
+        <v>1.118247626940891</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.62698364977541</v>
+        <v>1.651132987485096</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.580102783352582</v>
+        <v>1.234162092579528</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.546139849535688</v>
+        <v>1.463169597970764</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
-        <v>1.833472020776554</v>
+        <v>1.564496577978725</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.485320744280744</v>
+        <v>1.472818685384897</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.513077821493001</v>
+        <v>1.530079636686583</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.551944174544334</v>
+        <v>1.3400621740571</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.459860903843864</v>
+        <v>1.514576207555899</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.454031087684585</v>
+        <v>1.453896739281296</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.427385986812397</v>
+        <v>1.665831631360773</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>1.480715117724823</v>
+        <v>1.443779761313158</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.699191946596931</v>
+        <v>1.575855870532819</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200">
-        <v>1.602260061022838</v>
+        <v>1.527733949622681</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.705876118378314</v>
+        <v>1.629505600822393</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.819097100728573</v>
+        <v>1.745873952033569</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.480754348332742</v>
+        <v>1.494699181662128</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.323861106827469</v>
+        <v>1.43898777303366</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.527479614311308</v>
+        <v>1.618974141871507</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.581506851072308</v>
+        <v>1.405487912728436</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.370141951367703</v>
+        <v>1.368474097981195</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.63087553339759</v>
+        <v>1.432244922058444</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209">
-        <v>1.304770487357249</v>
+        <v>1.356159784188258</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.497342717284135</v>
+        <v>1.743289439028566</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.453461950731939</v>
+        <v>1.736651606236505</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1.927153709815188</v>
+        <v>1.543162531988209</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.492241807017391</v>
+        <v>1.664121318737273</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F214">
-        <v>1.42250628788287</v>
+        <v>1.268990413785999</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.508065335115712</v>
+        <v>1.634248951776332</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216">
-        <v>1.674296248082829</v>
+        <v>1.559487938403661</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.464254320413912</v>
+        <v>1.66452113426432</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.40946215248368</v>
+        <v>1.475619756402732</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.71011751376438</v>
+        <v>1.314643670975717</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.598069528577079</v>
+        <v>1.114990553693226</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.627504595145138</v>
+        <v>1.104365365054484</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.809613191926109</v>
+        <v>1.479574220449738</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.370029006658954</v>
+        <v>1.372991432357172</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.28877291452107</v>
+        <v>1.15532384687437</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.523456604201658</v>
+        <v>1.362948381029986</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.534036238459893</v>
+        <v>1.571486035215678</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>1.515816170465142</v>
+        <v>1.495672486082518</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228">
-        <v>1.422928909220928</v>
+        <v>1.572371183132688</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>1.515651499991086</v>
+        <v>1.613869795524154</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.276489111137337</v>
+        <v>1.595910199777731</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.344423364544267</v>
+        <v>1.582093821028933</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.344870007095244</v>
+        <v>1.735017422815854</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>1.469537907709232</v>
+        <v>1.532678846382355</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.456046867916743</v>
+        <v>1.235255609063992</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.386359649660921</v>
+        <v>1.327752683915554</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.376814892042533</v>
+        <v>1.483206932760533</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.454873261200773</v>
+        <v>1.536036444349009</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>1</v>
       </c>
       <c r="F238">
-        <v>1.300136600725224</v>
+        <v>1.467459123430845</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.364222722020554</v>
+        <v>1.682139046168698</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.371982144194361</v>
+        <v>1.404102801043223</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.645893139637746</v>
+        <v>1.470791281383376</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>1.382967534909129</v>
+        <v>1.623354814951186</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.598041243400684</v>
+        <v>1.551152390363121</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.471808944120079</v>
+        <v>1.408874199161093</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.505998115945415</v>
+        <v>1.597134733449247</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.682758368727382</v>
+        <v>1.313320933882795</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.652353437411634</v>
+        <v>1.396762081441589</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.606864125854475</v>
+        <v>1.342721886342025</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.600174743499882</v>
+        <v>1.375389473041578</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.885557779429736</v>
+        <v>1.498502296970383</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.478705825510536</v>
+        <v>1.49997111340254</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.455443524233426</v>
+        <v>1.770699365138168</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.226222022720425</v>
+        <v>1.592419923552627</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.665922361871992</v>
+        <v>1.541397272727552</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255">
-        <v>1.708338677080928</v>
+        <v>1.381928009747954</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.39621869383947</v>
+        <v>1.549385232331043</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.730528545968174</v>
+        <v>1.461730846999122</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/19_localizer.xlsx
+++ b/sequences/19_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
     <t>face</t>
   </si>
   <si>
-    <t>car</t>
-  </si>
-  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.600235719766963</v>
+        <v>1.532458297606495</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.659360280037042</v>
+        <v>1.199836467645115</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.32432051652755</v>
+        <v>1.470837936409292</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.501635016182534</v>
+        <v>1.560854829329379</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.183579277914188</v>
+        <v>1.643674830766638</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.589536033553415</v>
+        <v>1.498475987999655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.438152762068498</v>
+        <v>1.645344449273268</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>1.336834716597502</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.487194084120875</v>
+        <v>1.550576481479079</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1.217197747791978</v>
+        <v>1.591998182487269</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1.722651113189809</v>
+        <v>1.657297474229526</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1.368103197741204</v>
+        <v>1.653367386995443</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.455056367471758</v>
+        <v>1.6179072488977</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.447041676380633</v>
+        <v>1.819207035190121</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1.611350895720177</v>
+        <v>1.525576671788635</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.400699654917926</v>
+        <v>1.174246653210176</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.647949675183821</v>
+        <v>1.357992753423265</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.426571249501039</v>
+        <v>1.823475995591054</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.688517387285464</v>
+        <v>1.544184851755012</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.47389537915632</v>
+        <v>1.499005369622918</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.659383180103089</v>
+        <v>1.384445494337399</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.347800062041399</v>
+        <v>1.581435961955731</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.442570083377175</v>
+        <v>1.433599904315062</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.573934313437289</v>
+        <v>1.552814664043655</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.236039356179638</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1.408102064225504</v>
+        <v>1.475057143173881</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.475975375754488</v>
+        <v>1.40743588682386</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.360129758793128</v>
+        <v>1.488873949481413</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.602978648760226</v>
+        <v>1.407447892538879</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1.646470916646063</v>
+        <v>1.458687206901344</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>1.632756727786767</v>
+        <v>1.434333795044679</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.564705338754363</v>
+        <v>1.413990530191715</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.236921731828444</v>
+        <v>1.427762997959212</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.622190674978737</v>
+        <v>1.490617694055204</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.543350727761018</v>
+        <v>1.248541668196982</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.8036224437618</v>
+        <v>1.515286005990735</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.370302383264391</v>
+        <v>1.533295453786326</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.560767219550592</v>
+        <v>1.575638849217614</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.496945537295206</v>
+        <v>1.530925109214228</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.38836539830774</v>
+        <v>1.956169225056519</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.371871687175808</v>
+        <v>1.41983620833042</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.754902008219013</v>
+        <v>1.442169629036338</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.434574506723258</v>
+        <v>1.538446650667415</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.458576674777903</v>
+        <v>1.843783865576677</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.464612085033169</v>
+        <v>1.593224876072287</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1.656862795167965</v>
+        <v>1.356086763150556</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.2681223499078</v>
+        <v>1.349495780474108</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.4550290303621</v>
+        <v>1.640105952980023</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.448761643515537</v>
+        <v>1.182594272713983</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.563852687675823</v>
+        <v>1.441975321106921</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.319353698809491</v>
+        <v>1.325133944854614</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.636618576696956</v>
+        <v>1.347128338567859</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.458538817201449</v>
+        <v>1.573719243772131</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.623998833230804</v>
+        <v>1.398991486167384</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.335983100661342</v>
+        <v>1.643699697368175</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.191135421431206</v>
+        <v>1.568001601429527</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1.527056589121812</v>
+        <v>1.44403360522556</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.4862172244857</v>
+        <v>1.284203643081505</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>1.555093406720609</v>
+        <v>1.302721845286751</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1.379629963755485</v>
+        <v>1.652962775133648</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.433551037166297</v>
+        <v>1.595570603066948</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.327019219591208</v>
+        <v>1.386390793492334</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.389826201190119</v>
+        <v>1.167497252512146</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.633191124239333</v>
+        <v>1.298510068581122</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.240374958938373</v>
+        <v>1.383833384832367</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1.580077292018107</v>
+        <v>1.104723925235674</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>1.866555911039647</v>
+        <v>1.493107486621674</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.767956650596118</v>
+        <v>1.435963798204669</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1.608953472960536</v>
+        <v>1.717774413520259</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.408328846577437</v>
+        <v>1.632816636830788</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1.316478182266839</v>
+        <v>1.454131054215681</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.474151039032509</v>
+        <v>1.623829526498465</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>1.682264128011041</v>
+        <v>1.537959414143829</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1.583376648674204</v>
+        <v>1.578537838067074</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.402257858093</v>
+        <v>1.419268073347025</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.70073335461436</v>
+        <v>1.603226499432156</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.37798484780967</v>
+        <v>1.624115955967433</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.294662979616894</v>
+        <v>1.492156341829242</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.773309964579884</v>
+        <v>1.444874464780232</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.566978784116921</v>
+        <v>1.491195589257624</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.401151130661813</v>
+        <v>1.446471954004777</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.304048112807312</v>
+        <v>1.449355148353797</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.50656516989835</v>
+        <v>1.586631411926833</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.490963326611415</v>
+        <v>1.428449165150863</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.673070532194381</v>
+        <v>1.881544771152876</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.388279407233033</v>
+        <v>1.308402254371295</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.611047978001957</v>
+        <v>1.350564193328981</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.577643937667452</v>
+        <v>1.669548865708911</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.756168188192681</v>
+        <v>1.47009870234867</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.681665037749286</v>
+        <v>1.555638001037447</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.365832347616752</v>
+        <v>1.453023977882746</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.486986956216459</v>
+        <v>1.468685888710984</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.449309562327429</v>
+        <v>1.609532093189933</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.426334457678113</v>
+        <v>1.519683590977608</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.466766035171654</v>
+        <v>1.42889278480783</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.481954154747041</v>
+        <v>1.344939873775085</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1.477773574766134</v>
+        <v>1.66292995523904</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.239842251318464</v>
+        <v>1.745717404764882</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.531030832780769</v>
+        <v>1.436380352082237</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.643525179580559</v>
+        <v>1.372205294512265</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.54512505960089</v>
+        <v>1.470845922716353</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.598177936445522</v>
+        <v>1.721634644571419</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.588714491134565</v>
+        <v>1.201259293329621</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.509602151215074</v>
+        <v>1.352363050895555</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>1.675271446858282</v>
+        <v>1.653769097103239</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>1.615549822154237</v>
+        <v>1.560580190208157</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1.87290822284574</v>
+        <v>1.536579056039576</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.435541866910338</v>
+        <v>1.452036827562583</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>1.484015278040536</v>
+        <v>1.430862156797191</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.347891452394906</v>
+        <v>1.606972230271653</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.600383567460982</v>
+        <v>1.610511388589752</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.563145117446984</v>
+        <v>1.216220634440419</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.590114517478942</v>
+        <v>1.639559397901881</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.07879330224259</v>
+        <v>1.409557686590286</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>1.367670388559159</v>
+        <v>1.459777991325017</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.633853799608621</v>
+        <v>1.664998714108634</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.293058914690835</v>
+        <v>1.517353512611763</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="F119">
-        <v>1.605779075424758</v>
+        <v>1.261811419661255</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.469574568709618</v>
+        <v>1.653280917555708</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.442767551069242</v>
+        <v>1.436965755036504</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.939982479778638</v>
+        <v>1.610477320584982</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>1.662968344155616</v>
+        <v>1.406033079482871</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.839726995072381</v>
+        <v>1.554370899127963</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.433229196699643</v>
+        <v>1.341863275056129</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.172220524002333</v>
+        <v>1.368219782958416</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.280524769191049</v>
+        <v>1.523161040672089</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.052433575563817</v>
+        <v>1.527809368780582</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.616705308604416</v>
+        <v>1.568384601762937</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.363760931469707</v>
+        <v>1.512729691397182</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.493995239508848</v>
+        <v>1.445494434670919</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>1.709003673719314</v>
+        <v>1.345335724312698</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>1.447233396927236</v>
+        <v>1.550384556381346</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.529140330322934</v>
+        <v>1.465686761341281</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.964336462364976</v>
+        <v>1.305728989121166</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.410495343811464</v>
+        <v>1.529870831766372</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.143698712451005</v>
+        <v>1.588356818193974</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.549493080987248</v>
+        <v>1.516754659671729</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.439098785397091</v>
+        <v>1.578672825081184</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.471192051873293</v>
+        <v>1.34555933721063</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.519531953242437</v>
+        <v>1.525441546289129</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.420099279928687</v>
+        <v>1.524601738692777</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.508890382853552</v>
+        <v>1.482009693000072</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.667523915437053</v>
+        <v>1.337370284257038</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1.302234224127897</v>
+        <v>1.53089345779354</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.604815625668377</v>
+        <v>1.869559775080174</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.601345599413838</v>
+        <v>1.572252572318134</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>1.317731040545318</v>
+        <v>1.621638882959102</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.473511859418614</v>
+        <v>1.436349891428292</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.581649320664817</v>
+        <v>1.45350024786196</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151">
-        <v>1.518599822515824</v>
+        <v>1.571105936809088</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.37968194723366</v>
+        <v>1.459362825374057</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.587244358151376</v>
+        <v>1.283919769740868</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.545155055922797</v>
+        <v>1.601213515365897</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.568313547358143</v>
+        <v>1.781528971217536</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156">
-        <v>1.608823875946199</v>
+        <v>1.402549088868801</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.395473111084461</v>
+        <v>1.614420436500531</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.413172778916749</v>
+        <v>1.583336393217675</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.593488162320181</v>
+        <v>1.385972038613284</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.46520473901704</v>
+        <v>1.646417115696693</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.541482944281995</v>
+        <v>1.535854958930745</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.542660387584283</v>
+        <v>1.343264347592287</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.355244814180811</v>
+        <v>1.371320414894016</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>1.599852273633934</v>
+        <v>1.628730464473769</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.412787829216255</v>
+        <v>1.422111793342014</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.337657743049488</v>
+        <v>1.646605079494637</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="F167">
-        <v>1.424319891673517</v>
+        <v>1.580347840881286</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.496094749546464</v>
+        <v>1.674295188002819</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.643147648873604</v>
+        <v>1.419914260791319</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.714076659190214</v>
+        <v>1.48209837105808</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.464729509242362</v>
+        <v>1.369363419972512</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.503504919884863</v>
+        <v>1.410826133936392</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.561503197676769</v>
+        <v>1.684126136223752</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.686231879720975</v>
+        <v>1.449770040759886</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.735729326773663</v>
+        <v>1.639489772383949</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.310886322319748</v>
+        <v>1.414306749271433</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.276337782907839</v>
+        <v>1.435856934634913</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.149409800907171</v>
+        <v>1.324570904824464</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.428985847193311</v>
+        <v>1.430730387697937</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.621098865585651</v>
+        <v>1.653267650652355</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>1.439671821595364</v>
+        <v>1.634528701001546</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.471051267860875</v>
+        <v>1.380928891726031</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>1.58720356093907</v>
+        <v>1.606419654297471</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.563387594473885</v>
+        <v>1.196415152028125</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.543476114101975</v>
+        <v>1.382891084620943</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.533918204188821</v>
+        <v>1.545292387422386</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.118247626940891</v>
+        <v>1.299910548828205</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.651132987485096</v>
+        <v>1.343906786331171</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.234162092579528</v>
+        <v>1.688365124949873</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190">
-        <v>1.463169597970764</v>
+        <v>1.659044939681063</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>1.564496577978725</v>
+        <v>1.583564944649861</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.472818685384897</v>
+        <v>1.483437099066945</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.530079636686583</v>
+        <v>1.556614471858529</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.3400621740571</v>
+        <v>1.413319896638232</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.514576207555899</v>
+        <v>1.590026734963835</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196">
-        <v>1.453896739281296</v>
+        <v>1.554412034866528</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.665831631360773</v>
+        <v>1.517723012258833</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.443779761313158</v>
+        <v>1.449748690679982</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.575855870532819</v>
+        <v>1.536198083531191</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>1.527733949622681</v>
+        <v>1.533758042004647</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.629505600822393</v>
+        <v>1.854912155223051</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.745873952033569</v>
+        <v>1.505084167547684</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.494699181662128</v>
+        <v>1.414893408977727</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>1.43898777303366</v>
+        <v>1.38604549490633</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.618974141871507</v>
+        <v>1.553408892466843</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.405487912728436</v>
+        <v>1.66596740487241</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.368474097981195</v>
+        <v>1.598260827194808</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.432244922058444</v>
+        <v>1.64589601601333</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>1.356159784188258</v>
+        <v>1.386634673519939</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.743289439028566</v>
+        <v>1.66805305270226</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.736651606236505</v>
+        <v>1.504827246248118</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.543162531988209</v>
+        <v>1.160135487201647</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.664121318737273</v>
+        <v>1.375770599636555</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.268990413785999</v>
+        <v>1.564599484119991</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.634248951776332</v>
+        <v>1.646265617311493</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>1.559487938403661</v>
+        <v>1.63963899770546</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.66452113426432</v>
+        <v>1.442930161712836</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.475619756402732</v>
+        <v>1.567264505661719</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.314643670975717</v>
+        <v>1.670921688591841</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.114990553693226</v>
+        <v>1.663501719937735</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.104365365054484</v>
+        <v>1.460290323101018</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.479574220449738</v>
+        <v>1.541091016734764</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.372991432357172</v>
+        <v>1.249624203560556</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.15532384687437</v>
+        <v>1.812631041272555</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.362948381029986</v>
+        <v>1.492553558011057</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.571486035215678</v>
+        <v>1.617311392940256</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.495672486082518</v>
+        <v>1.346795061920543</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>1.572371183132688</v>
+        <v>1.566246727431404</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.613869795524154</v>
+        <v>1.536446488630916</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.595910199777731</v>
+        <v>1.50519044952282</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.582093821028933</v>
+        <v>1.321102212792835</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.735017422815854</v>
+        <v>1.619630062813788</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.532678846382355</v>
+        <v>1.607575951629415</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.235255609063992</v>
+        <v>1.374234601895943</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.327752683915554</v>
+        <v>1.318167235012856</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
-        <v>1.483206932760533</v>
+        <v>1.32866411401894</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237">
-        <v>1.536036444349009</v>
+        <v>1.166300043143214</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>1.467459123430845</v>
+        <v>1.339452885749013</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239">
-        <v>1.682139046168698</v>
+        <v>1.625546248412489</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.404102801043223</v>
+        <v>1.63231632865527</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.470791281383376</v>
+        <v>1.248056603918224</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.623354814951186</v>
+        <v>1.563566495243036</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.551152390363121</v>
+        <v>1.371027621132326</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.408874199161093</v>
+        <v>1.408367759913595</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.597134733449247</v>
+        <v>1.458955711570465</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.313320933882795</v>
+        <v>1.27004006187159</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.396762081441589</v>
+        <v>1.458524165219616</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.342721886342025</v>
+        <v>1.358763631904432</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.375389473041578</v>
+        <v>1.345556589448672</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.498502296970383</v>
+        <v>1.716632266631046</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.49997111340254</v>
+        <v>1.199072593625806</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.770699365138168</v>
+        <v>1.499680067157871</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253">
-        <v>1.592419923552627</v>
+        <v>1.49622754996446</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.541397272727552</v>
+        <v>1.705258871288062</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>1</v>
       </c>
       <c r="F255">
-        <v>1.381928009747954</v>
+        <v>1.524766741433971</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.549385232331043</v>
+        <v>1.618239486588032</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.461730846999122</v>
+        <v>1.49628688996557</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/19_localizer.xlsx
+++ b/sequences/19_localizer.xlsx
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.532458297606495</v>
+        <v>1.621079586675569</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.199836467645115</v>
+        <v>1.435666636846464</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.470837936409292</v>
+        <v>1.553142889860414</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.560854829329379</v>
+        <v>1.261093940412324</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.643674830766638</v>
+        <v>1.590608512252947</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.498475987999655</v>
+        <v>1.67138700199059</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.645344449273268</v>
+        <v>1.470225696215668</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1.336834716597502</v>
+        <v>1.413683998932009</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.550576481479079</v>
+        <v>1.861867250497502</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1.591998182487269</v>
+        <v>1.76262503681093</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1.657297474229526</v>
+        <v>1.291275752646777</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.653367386995443</v>
+        <v>1.684640432186785</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.6179072488977</v>
+        <v>1.341879971837692</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.819207035190121</v>
+        <v>1.547407497644147</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1.525576671788635</v>
+        <v>1.33568425022075</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.174246653210176</v>
+        <v>1.337404929737571</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.357992753423265</v>
+        <v>1.601552860885032</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.823475995591054</v>
+        <v>1.406036797903814</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.544184851755012</v>
+        <v>1.727887395084971</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.499005369622918</v>
+        <v>1.736995737265651</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.384445494337399</v>
+        <v>1.270082027447138</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.581435961955731</v>
+        <v>1.641789257741634</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.433599904315062</v>
+        <v>1.80714441052017</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.552814664043655</v>
+        <v>1.388939509914217</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1.412652991069517</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1.475057143173881</v>
+        <v>1.515120054726793</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1.40743588682386</v>
+        <v>1.622036562013974</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.488873949481413</v>
+        <v>1.5841415300599</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.407447892538879</v>
+        <v>1.434424239972268</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.458687206901344</v>
+        <v>1.99419128875597</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.434333795044679</v>
+        <v>1.308092705954719</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.413990530191715</v>
+        <v>1.422625955924663</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.427762997959212</v>
+        <v>1.380948620943235</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.490617694055204</v>
+        <v>1.306648446065261</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.248541668196982</v>
+        <v>1.741953979064636</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.515286005990735</v>
+        <v>1.397367810817897</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.533295453786326</v>
+        <v>1.541573672987615</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.575638849217614</v>
+        <v>1.411190907854148</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.530925109214228</v>
+        <v>1.375385285235506</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>1.956169225056519</v>
+        <v>1.568851643308746</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.41983620833042</v>
+        <v>1.744203753804372</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.442169629036338</v>
+        <v>1.529746525324794</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.538446650667415</v>
+        <v>1.745652179799409</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.843783865576677</v>
+        <v>1.315848814620351</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.593224876072287</v>
+        <v>1.779637465118815</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.356086763150556</v>
+        <v>1.54771504868504</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.349495780474108</v>
+        <v>1.426478977482932</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.640105952980023</v>
+        <v>1.655646526215579</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.182594272713983</v>
+        <v>1.543020464681136</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.441975321106921</v>
+        <v>1.378265248461534</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.325133944854614</v>
+        <v>1.245904226258202</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.347128338567859</v>
+        <v>1.626614935435801</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1.573719243772131</v>
+        <v>1.485059195351137</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1.398991486167384</v>
+        <v>1.841251932135862</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.643699697368175</v>
+        <v>1.517140634270524</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.568001601429527</v>
+        <v>1.466943621690715</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.44403360522556</v>
+        <v>1.291795431505391</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.284203643081505</v>
+        <v>1.560720011323202</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1.302721845286751</v>
+        <v>1.65534669396388</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.652962775133648</v>
+        <v>1.732325512850458</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>1.595570603066948</v>
+        <v>1.672610283918424</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.386390793492334</v>
+        <v>1.776265971555445</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.167497252512146</v>
+        <v>1.150125072884517</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.298510068581122</v>
+        <v>1.470181523890582</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.383833384832367</v>
+        <v>1.620730980758342</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.104723925235674</v>
+        <v>1.599193485753478</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.493107486621674</v>
+        <v>1.507303657670052</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.435963798204669</v>
+        <v>1.309293324670314</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.717774413520259</v>
+        <v>1.307233598054022</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>1.632816636830788</v>
+        <v>1.467045972001145</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.454131054215681</v>
+        <v>1.487070779431493</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.623829526498465</v>
+        <v>1.600806488471255</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.537959414143829</v>
+        <v>1.441858255500576</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.578537838067074</v>
+        <v>1.369073092477148</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.419268073347025</v>
+        <v>1.64049099798722</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.603226499432156</v>
+        <v>1.602800787337137</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.624115955967433</v>
+        <v>1.446087439925567</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.492156341829242</v>
+        <v>1.314519067092209</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.444874464780232</v>
+        <v>1.499040086277984</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.491195589257624</v>
+        <v>1.637306211979238</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.446471954004777</v>
+        <v>1.526233009852312</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.449355148353797</v>
+        <v>1.318341985503027</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.586631411926833</v>
+        <v>1.433495283090531</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.428449165150863</v>
+        <v>1.644391850384056</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.881544771152876</v>
+        <v>1.314910578484461</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.308402254371295</v>
+        <v>1.30347226972849</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.350564193328981</v>
+        <v>1.609085764257517</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.669548865708911</v>
+        <v>1.25005836284608</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>1.47009870234867</v>
+        <v>1.70452950226191</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.555638001037447</v>
+        <v>1.456729206996285</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.453023977882746</v>
+        <v>1.711716484087462</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.468685888710984</v>
+        <v>1.282942091995463</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.609532093189933</v>
+        <v>1.357076633288453</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>1.519683590977608</v>
+        <v>1.315578357237076</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.42889278480783</v>
+        <v>1.549771029154634</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.344939873775085</v>
+        <v>1.386680264151118</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.66292995523904</v>
+        <v>1.534534411516567</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.745717404764882</v>
+        <v>1.519002979832017</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.436380352082237</v>
+        <v>1.457322886889477</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.372205294512265</v>
+        <v>1.445861916460818</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>1.470845922716353</v>
+        <v>1.517479323127646</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.721634644571419</v>
+        <v>1.629225701007166</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.201259293329621</v>
+        <v>1.659456364119357</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.352363050895555</v>
+        <v>1.329936075693753</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>1.653769097103239</v>
+        <v>1.431716786003877</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1.560580190208157</v>
+        <v>1.325365503011961</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1.536579056039576</v>
+        <v>1.327085303621977</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.452036827562583</v>
+        <v>1.522042107525151</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>1.430862156797191</v>
+        <v>1.51470821838816</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.606972230271653</v>
+        <v>1.173028996009343</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.610511388589752</v>
+        <v>1.46953650231897</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>1.216220634440419</v>
+        <v>1.708216496714021</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.639559397901881</v>
+        <v>1.451302690671801</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.409557686590286</v>
+        <v>1.357203056283382</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1.459777991325017</v>
+        <v>1.658769581265922</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.664998714108634</v>
+        <v>1.357643872969853</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>1.517353512611763</v>
+        <v>1.583842655425392</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1.261811419661255</v>
+        <v>1.479220224087777</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.653280917555708</v>
+        <v>1.718907451334193</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.436965755036504</v>
+        <v>1.651541602495664</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.610477320584982</v>
+        <v>1.545547850525349</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.406033079482871</v>
+        <v>1.588900113562764</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.554370899127963</v>
+        <v>1.437764240875357</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.341863275056129</v>
+        <v>1.496282493928408</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.368219782958416</v>
+        <v>1.414356253373342</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>1.523161040672089</v>
+        <v>1.672191674373786</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.527809368780582</v>
+        <v>1.223679060886765</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
-        <v>1.568384601762937</v>
+        <v>1.315630701370413</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.512729691397182</v>
+        <v>1.524907917286765</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.445494434670919</v>
+        <v>1.337503424314023</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.345335724312698</v>
+        <v>1.75198866277923</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.550384556381346</v>
+        <v>1.314170676465894</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.465686761341281</v>
+        <v>1.375494026614734</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.305728989121166</v>
+        <v>1.640086631243716</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.529870831766372</v>
+        <v>1.658282932967452</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.588356818193974</v>
+        <v>1.774194936653615</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.516754659671729</v>
+        <v>1.572939521650996</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.578672825081184</v>
+        <v>1.567302306537618</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.34555933721063</v>
+        <v>1.411183655032874</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.525441546289129</v>
+        <v>1.728920113118064</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.524601738692777</v>
+        <v>1.451654313349898</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.482009693000072</v>
+        <v>1.670888095189291</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.337370284257038</v>
+        <v>1.213797357123532</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
-        <v>1.53089345779354</v>
+        <v>1.47192146793521</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.869559775080174</v>
+        <v>1.260718959180036</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>1.572252572318134</v>
+        <v>1.500795396233236</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.621638882959102</v>
+        <v>1.667339238446566</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.436349891428292</v>
+        <v>1.644877648139306</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.45350024786196</v>
+        <v>1.427043038390961</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>1.571105936809088</v>
+        <v>1.43059260490696</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1.459362825374057</v>
+        <v>1.283510662377532</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.283919769740868</v>
+        <v>1.537035615756755</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.601213515365897</v>
+        <v>1.685083654254464</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.781528971217536</v>
+        <v>1.609252082776303</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>1.402549088868801</v>
+        <v>1.629892722404804</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.614420436500531</v>
+        <v>1.41774423394378</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.583336393217675</v>
+        <v>1.591497778810068</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.385972038613284</v>
+        <v>1.495322360044621</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.646417115696693</v>
+        <v>1.344634334013524</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.535854958930745</v>
+        <v>1.637411911274477</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.343264347592287</v>
+        <v>1.642223263621754</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.371320414894016</v>
+        <v>1.531338983658489</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>1.628730464473769</v>
+        <v>1.574994088689686</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.422111793342014</v>
+        <v>1.466125454334106</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
-        <v>1.646605079494637</v>
+        <v>1.50887551731096</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1.580347840881286</v>
+        <v>1.468646327640955</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.674295188002819</v>
+        <v>1.61793588115849</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.419914260791319</v>
+        <v>1.580394547522545</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.48209837105808</v>
+        <v>1.410703500580007</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.369363419972512</v>
+        <v>1.614984987652789</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172">
-        <v>1.410826133936392</v>
+        <v>1.467746232526767</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>1.684126136223752</v>
+        <v>1.49984311018478</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.449770040759886</v>
+        <v>1.540299104560511</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175">
-        <v>1.639489772383949</v>
+        <v>1.70276125240795</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.414306749271433</v>
+        <v>1.498423468108522</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.435856934634913</v>
+        <v>1.366579480358906</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.324570904824464</v>
+        <v>1.639601269379606</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.430730387697937</v>
+        <v>1.437245894585927</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.653267650652355</v>
+        <v>1.453124792875103</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>1.634528701001546</v>
+        <v>1.636610012686638</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.380928891726031</v>
+        <v>1.43125962076961</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.606419654297471</v>
+        <v>1.80490359930021</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
-        <v>1.196415152028125</v>
+        <v>1.366297326986101</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.382891084620943</v>
+        <v>1.441664018849504</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186">
-        <v>1.545292387422386</v>
+        <v>1.631462321761634</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.299910548828205</v>
+        <v>1.177573198970001</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.343906786331171</v>
+        <v>1.436079431730825</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.688365124949873</v>
+        <v>1.66056066003725</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>1.659044939681063</v>
+        <v>1.625667132312037</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.583564944649861</v>
+        <v>1.42142287442448</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.483437099066945</v>
+        <v>1.692797637407008</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.556614471858529</v>
+        <v>1.415935775337525</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.413319896638232</v>
+        <v>1.514064068927673</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.590026734963835</v>
+        <v>1.724303342559329</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>1.554412034866528</v>
+        <v>1.545176712830209</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.517723012258833</v>
+        <v>1.562408375391586</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.449748690679982</v>
+        <v>1.495611581437977</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.536198083531191</v>
+        <v>1.748246004489728</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.533758042004647</v>
+        <v>1.258983358924159</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.854912155223051</v>
+        <v>1.599678704114419</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>1.505084167547684</v>
+        <v>1.667982159777631</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.414893408977727</v>
+        <v>1.471394832904761</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>1.38604549490633</v>
+        <v>1.4361966646471</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205">
-        <v>1.553408892466843</v>
+        <v>1.353393281882475</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.66596740487241</v>
+        <v>1.697684248498201</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.598260827194808</v>
+        <v>1.612097751338172</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.64589601601333</v>
+        <v>1.304813911918616</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.386634673519939</v>
+        <v>1.768892118249381</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210">
-        <v>1.66805305270226</v>
+        <v>1.645571022829049</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.504827246248118</v>
+        <v>1.569657591039795</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.160135487201647</v>
+        <v>1.722462789817607</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213">
-        <v>1.375770599636555</v>
+        <v>1.542953931020043</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.564599484119991</v>
+        <v>1.748745922416335</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.646265617311493</v>
+        <v>1.486776063369309</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.63963899770546</v>
+        <v>1.504410465819155</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.442930161712836</v>
+        <v>1.65078548088835</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.567264505661719</v>
+        <v>1.362339621051525</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>1.670921688591841</v>
+        <v>1.414151597254402</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.663501719937735</v>
+        <v>1.53478099071426</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.460290323101018</v>
+        <v>1.631946112015592</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.541091016734764</v>
+        <v>1.556023920721015</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223">
-        <v>1.249624203560556</v>
+        <v>1.258053530306178</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.812631041272555</v>
+        <v>1.538008722675313</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.492553558011057</v>
+        <v>1.435801515225497</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.617311392940256</v>
+        <v>1.614841720592545</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.346795061920543</v>
+        <v>1.399227385412842</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.566246727431404</v>
+        <v>1.44677456278499</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.536446488630916</v>
+        <v>1.777510357418616</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.50519044952282</v>
+        <v>1.500539682271158</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.321102212792835</v>
+        <v>1.694829568325323</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.619630062813788</v>
+        <v>1.235583290465821</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.607575951629415</v>
+        <v>1.689101328825978</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.374234601895943</v>
+        <v>1.337942994751907</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.318167235012856</v>
+        <v>1.608625950359009</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>1.32866411401894</v>
+        <v>1.515788846762448</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>1.166300043143214</v>
+        <v>1.587538379396662</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.339452885749013</v>
+        <v>1.236451218241627</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>1.625546248412489</v>
+        <v>1.556549036130475</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.63231632865527</v>
+        <v>1.374920273135015</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.248056603918224</v>
+        <v>1.35999127553302</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.563566495243036</v>
+        <v>1.806077419782595</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.371027621132326</v>
+        <v>1.400493319833664</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.408367759913595</v>
+        <v>1.474438061328587</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.458955711570465</v>
+        <v>1.732774697334336</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.27004006187159</v>
+        <v>1.731409781908326</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.458524165219616</v>
+        <v>1.59327988278538</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.358763631904432</v>
+        <v>1.729540900112845</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.345556589448672</v>
+        <v>1.248662716155557</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.716632266631046</v>
+        <v>1.711164649749494</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.199072593625806</v>
+        <v>1.620454485392544</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.499680067157871</v>
+        <v>1.637474688531469</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>1.49622754996446</v>
+        <v>1.64774511843726</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.705258871288062</v>
+        <v>1.453556680939714</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>1.524766741433971</v>
+        <v>1.441087822913228</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.618239486588032</v>
+        <v>1.469235981031523</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257">
-        <v>1.49628688996557</v>
+        <v>1.390269074379992</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/19_localizer.xlsx
+++ b/sequences/19_localizer.xlsx
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.621079586675569</v>
+        <v>1.777788735608458</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.435666636846464</v>
+        <v>1.474875415833564</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.553142889860414</v>
+        <v>1.57627137403211</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.261093940412324</v>
+        <v>1.613086532871944</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.590608512252947</v>
+        <v>1.363129781981443</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.67138700199059</v>
+        <v>1.399342459785332</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.470225696215668</v>
+        <v>1.544699059130318</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.413683998932009</v>
+        <v>1.428882169444106</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.861867250497502</v>
+        <v>1.609141232351125</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.76262503681093</v>
+        <v>1.500406350732509</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.291275752646777</v>
+        <v>1.783741749277547</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.684640432186785</v>
+        <v>1.308075197979894</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1.341879971837692</v>
+        <v>1.239754010411866</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.547407497644147</v>
+        <v>1.370998084617089</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1.33568425022075</v>
+        <v>1.582839754735178</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.337404929737571</v>
+        <v>1.390171203786362</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1.601552860885032</v>
+        <v>1.50220192439988</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1.406036797903814</v>
+        <v>1.706760538909778</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.727887395084971</v>
+        <v>1.51865509724942</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.736995737265651</v>
+        <v>1.562034727887683</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.270082027447138</v>
+        <v>1.179015911171192</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.641789257741634</v>
+        <v>1.453538952874647</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.80714441052017</v>
+        <v>1.220410595643468</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.388939509914217</v>
+        <v>1.502927663200536</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.412652991069517</v>
+        <v>1.589961282684902</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.515120054726793</v>
+        <v>1.311446394136992</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>1.622036562013974</v>
+        <v>1.51856647586428</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.5841415300599</v>
+        <v>1.484140107415727</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.434424239972268</v>
+        <v>1.83553031469103</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.99419128875597</v>
+        <v>1.745722634880711</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.308092705954719</v>
+        <v>1.565991205688576</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.422625955924663</v>
+        <v>1.589111104315071</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.380948620943235</v>
+        <v>1.539671556475568</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.306648446065261</v>
+        <v>1.611118015502891</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.741953979064636</v>
+        <v>1.255453610516759</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.397367810817897</v>
+        <v>1.57386592030708</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.541573672987615</v>
+        <v>1.182813204805837</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.411190907854148</v>
+        <v>1.457839968173127</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.375385285235506</v>
+        <v>1.560414456292757</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1.568851643308746</v>
+        <v>1.579581070059169</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.744203753804372</v>
+        <v>1.431922532864189</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.529746525324794</v>
+        <v>1.601487683082158</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.745652179799409</v>
+        <v>1.595624037328413</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.315848814620351</v>
+        <v>1.578926743589147</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.779637465118815</v>
+        <v>1.563537183341015</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.54771504868504</v>
+        <v>1.555031673617802</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.426478977482932</v>
+        <v>1.289012006581767</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.655646526215579</v>
+        <v>1.510097136529249</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.543020464681136</v>
+        <v>1.657410177601942</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.378265248461534</v>
+        <v>1.672120680074821</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.245904226258202</v>
+        <v>1.223419684717723</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.626614935435801</v>
+        <v>1.513502832057866</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.485059195351137</v>
+        <v>1.170945602192838</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.841251932135862</v>
+        <v>1.473739627466982</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.517140634270524</v>
+        <v>1.365130850686089</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.466943621690715</v>
+        <v>1.625107521352411</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>1.291795431505391</v>
+        <v>1.594302845010036</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.560720011323202</v>
+        <v>1.186500763723145</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.65534669396388</v>
+        <v>1.261832430338768</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.732325512850458</v>
+        <v>1.440203149702408</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>1.672610283918424</v>
+        <v>1.329325506763798</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.776265971555445</v>
+        <v>1.294287007093167</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.150125072884517</v>
+        <v>1.602664060147652</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>1.470181523890582</v>
+        <v>1.441907332934794</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.620730980758342</v>
+        <v>1.292638369563466</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.599193485753478</v>
+        <v>1.572879358246541</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.507303657670052</v>
+        <v>1.623331979817475</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.309293324670314</v>
+        <v>1.706039753343362</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.307233598054022</v>
+        <v>1.746650910717933</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="F71">
-        <v>1.467045972001145</v>
+        <v>1.375572268051678</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.487070779431493</v>
+        <v>1.496251032014945</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>1.600806488471255</v>
+        <v>1.489385432205344</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.441858255500576</v>
+        <v>1.529409303279085</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.369073092477148</v>
+        <v>1.609452041002029</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.64049099798722</v>
+        <v>1.312030227657447</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>1.602800787337137</v>
+        <v>1.570045910777267</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.446087439925567</v>
+        <v>1.796185674388629</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.314519067092209</v>
+        <v>1.542335905064826</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>1.499040086277984</v>
+        <v>1.480941430628189</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.637306211979238</v>
+        <v>1.52692966873538</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.526233009852312</v>
+        <v>1.633147060949921</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.318341985503027</v>
+        <v>1.61340376575315</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.433495283090531</v>
+        <v>1.660718637411114</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.644391850384056</v>
+        <v>1.32861241041717</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.314910578484461</v>
+        <v>1.468448135091581</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.30347226972849</v>
+        <v>1.493954674619327</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.609085764257517</v>
+        <v>1.561258851947348</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.25005836284608</v>
+        <v>1.248325371380397</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1.70452950226191</v>
+        <v>1.365801369720492</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.456729206996285</v>
+        <v>1.283773028981622</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.711716484087462</v>
+        <v>1.465279389491929</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.282942091995463</v>
+        <v>1.404326979189701</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.357076633288453</v>
+        <v>1.415789374936945</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>1.315578357237076</v>
+        <v>1.313142636432413</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.549771029154634</v>
+        <v>1.7261558230131</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.386680264151118</v>
+        <v>1.391850956086633</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.534534411516567</v>
+        <v>1.260323608971872</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.519002979832017</v>
+        <v>1.445503209084701</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.457322886889477</v>
+        <v>1.387882940424599</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.445861916460818</v>
+        <v>1.793549684988353</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.517479323127646</v>
+        <v>1.482889307020247</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.629225701007166</v>
+        <v>1.338937240239774</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.659456364119357</v>
+        <v>1.675948147840375</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.329936075693753</v>
+        <v>1.57244043865222</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.431716786003877</v>
+        <v>1.389297815924063</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>1.325365503011961</v>
+        <v>1.393888258452085</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.327085303621977</v>
+        <v>1.638480366350261</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.522042107525151</v>
+        <v>1.65792227920046</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.51470821838816</v>
+        <v>1.537581478958923</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.173028996009343</v>
+        <v>1.730135405697286</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.46953650231897</v>
+        <v>1.35596080030308</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>1.708216496714021</v>
+        <v>1.466075024115935</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>1.451302690671801</v>
+        <v>1.758619682995227</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.357203056283382</v>
+        <v>1.647418990205643</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.658769581265922</v>
+        <v>1.440601081985871</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.357643872969853</v>
+        <v>1.55511216201248</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>1.583842655425392</v>
+        <v>1.305649871576266</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.479220224087777</v>
+        <v>1.523883449312138</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.718907451334193</v>
+        <v>1.635827300555728</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.651541602495664</v>
+        <v>1.647909924247404</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.545547850525349</v>
+        <v>1.463352446120103</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.588900113562764</v>
+        <v>1.678335466273233</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.437764240875357</v>
+        <v>1.366853300910059</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.496282493928408</v>
+        <v>1.356543892682623</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>1.414356253373342</v>
+        <v>1.416471999476645</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1.672191674373786</v>
+        <v>1.299414204628968</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.223679060886765</v>
+        <v>1.758773192952005</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="F129">
-        <v>1.315630701370413</v>
+        <v>1.464071670325472</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.524907917286765</v>
+        <v>1.385456904244316</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>1.337503424314023</v>
+        <v>1.611596066695054</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.75198866277923</v>
+        <v>1.329780903777855</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>1.314170676465894</v>
+        <v>1.290278073997165</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.375494026614734</v>
+        <v>1.535474678643201</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.640086631243716</v>
+        <v>1.703855350029178</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.658282932967452</v>
+        <v>1.379968968933525</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.774194936653615</v>
+        <v>1.544382995931808</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.572939521650996</v>
+        <v>1.334648854076574</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.567302306537618</v>
+        <v>1.349163124362446</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.411183655032874</v>
+        <v>1.648588702446621</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.728920113118064</v>
+        <v>1.717790780101709</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>1.451654313349898</v>
+        <v>1.662995103065802</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.670888095189291</v>
+        <v>1.65076411345646</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.213797357123532</v>
+        <v>1.45494751800995</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1.47192146793521</v>
+        <v>1.200126874052868</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.260718959180036</v>
+        <v>1.499023976621211</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>1.500795396233236</v>
+        <v>1.679690978774788</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.667339238446566</v>
+        <v>1.26947584868176</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.644877648139306</v>
+        <v>1.283056412801887</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.427043038390961</v>
+        <v>1.777417070583695</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.43059260490696</v>
+        <v>1.257168739631758</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.283510662377532</v>
+        <v>1.644334402694414</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.537035615756755</v>
+        <v>1.468273853660378</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
-        <v>1.685083654254464</v>
+        <v>1.60212610565627</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.609252082776303</v>
+        <v>1.524766603023266</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.629892722404804</v>
+        <v>1.352319266359971</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.41774423394378</v>
+        <v>1.466864602152549</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.591497778810068</v>
+        <v>1.506825115093809</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.495322360044621</v>
+        <v>1.561355085614207</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.344634334013524</v>
+        <v>1.639020259641972</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>1.637411911274477</v>
+        <v>1.667059294014795</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.642223263621754</v>
+        <v>1.445354323968584</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.531338983658489</v>
+        <v>1.399521525262013</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.574994088689686</v>
+        <v>1.62140875914175</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.466125454334106</v>
+        <v>1.556835456385536</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>1.50887551731096</v>
+        <v>1.377625367608352</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.468646327640955</v>
+        <v>1.651070409986968</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.61793588115849</v>
+        <v>1.356676591896508</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.580394547522545</v>
+        <v>1.162423147047964</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.410703500580007</v>
+        <v>1.537479607911001</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.614984987652789</v>
+        <v>1.386639252287444</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>1.467746232526767</v>
+        <v>1.56971504861464</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1.49984311018478</v>
+        <v>1.385891869568433</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.540299104560511</v>
+        <v>1.399854047157526</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="F175">
-        <v>1.70276125240795</v>
+        <v>1.624792662456047</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.498423468108522</v>
+        <v>1.394031501053081</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.366579480358906</v>
+        <v>1.719255161474657</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.639601269379606</v>
+        <v>1.669342677486837</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.437245894585927</v>
+        <v>1.608225115428107</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.453124792875103</v>
+        <v>1.358239852771041</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.636610012686638</v>
+        <v>1.525051441719209</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.43125962076961</v>
+        <v>1.409655974446186</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.80490359930021</v>
+        <v>1.230217515852295</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>1.366297326986101</v>
+        <v>1.498233255965313</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.441664018849504</v>
+        <v>1.424649956335768</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>1.631462321761634</v>
+        <v>1.434682850744771</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.177573198970001</v>
+        <v>1.672559999454642</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.436079431730825</v>
+        <v>1.435842862831884</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.66056066003725</v>
+        <v>1.445246921409756</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.625667132312037</v>
+        <v>1.611453767455839</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.42142287442448</v>
+        <v>1.393407408311175</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.692797637407008</v>
+        <v>1.489226581897827</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.415935775337525</v>
+        <v>1.403436093442141</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.514064068927673</v>
+        <v>1.587198129053657</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.724303342559329</v>
+        <v>1.536807406325484</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.545176712830209</v>
+        <v>1.732432315776009</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.562408375391586</v>
+        <v>1.515256048666747</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.495611581437977</v>
+        <v>1.547505557668129</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.748246004489728</v>
+        <v>1.463870421794856</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.258983358924159</v>
+        <v>1.68945508482358</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.599678704114419</v>
+        <v>1.57189297067944</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>1.667982159777631</v>
+        <v>1.653096761835474</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.471394832904761</v>
+        <v>1.284379399302832</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.4361966646471</v>
+        <v>1.282854436088091</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>1.353393281882475</v>
+        <v>1.543074636785568</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.697684248498201</v>
+        <v>1.547210903348095</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207">
-        <v>1.612097751338172</v>
+        <v>1.421337358998331</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.304813911918616</v>
+        <v>1.386058520727372</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.768892118249381</v>
+        <v>1.375941731576715</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>1.645571022829049</v>
+        <v>1.589242378984999</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>1.569657591039795</v>
+        <v>1.425838348393622</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.722462789817607</v>
+        <v>1.390665441745206</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>1.542953931020043</v>
+        <v>1.346179267609123</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.748745922416335</v>
+        <v>1.345075203363937</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.486776063369309</v>
+        <v>1.653961162870093</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.504410465819155</v>
+        <v>1.565349323455839</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>1.65078548088835</v>
+        <v>1.586240323776853</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.362339621051525</v>
+        <v>1.397533841739001</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>1.414151597254402</v>
+        <v>1.568812538135757</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.53478099071426</v>
+        <v>1.445079083881879</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>1.631946112015592</v>
+        <v>1.530737044098629</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.556023920721015</v>
+        <v>1.677509856884045</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>1</v>
       </c>
       <c r="F223">
-        <v>1.258053530306178</v>
+        <v>1.407094765990651</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.538008722675313</v>
+        <v>1.602200580789089</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.435801515225497</v>
+        <v>1.497293797994111</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.614841720592545</v>
+        <v>1.48312992265615</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.399227385412842</v>
+        <v>1.601829284919971</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.44677456278499</v>
+        <v>1.78144090753481</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.777510357418616</v>
+        <v>1.535629012577854</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.500539682271158</v>
+        <v>1.459324541461195</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.694829568325323</v>
+        <v>1.590380245235268</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232">
-        <v>1.235583290465821</v>
+        <v>1.577492010875382</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.689101328825978</v>
+        <v>1.444629149003821</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.337942994751907</v>
+        <v>1.602862113058149</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.608625950359009</v>
+        <v>1.342865839560165</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.515788846762448</v>
+        <v>1.376519446105151</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.587538379396662</v>
+        <v>1.303368766886634</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.236451218241627</v>
+        <v>1.377525990913917</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.556549036130475</v>
+        <v>1.801716867095659</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.374920273135015</v>
+        <v>1.396353999101736</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.35999127553302</v>
+        <v>1.593491646452844</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.806077419782595</v>
+        <v>1.465254350130539</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.400493319833664</v>
+        <v>1.619944325723815</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.474438061328587</v>
+        <v>1.474242954238848</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.732774697334336</v>
+        <v>1.479292473240859</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.731409781908326</v>
+        <v>1.219178160519131</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.59327988278538</v>
+        <v>1.353366178767373</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.729540900112845</v>
+        <v>1.510015646081134</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.248662716155557</v>
+        <v>1.52775747192681</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F250">
-        <v>1.711164649749494</v>
+        <v>1.564067788250856</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.620454485392544</v>
+        <v>1.471480179316591</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.637474688531469</v>
+        <v>1.390833661373445</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.64774511843726</v>
+        <v>1.297888651766136</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.453556680939714</v>
+        <v>1.549802219259233</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.441087822913228</v>
+        <v>1.414677196641503</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.469235981031523</v>
+        <v>1.539300345211524</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>1.390269074379992</v>
+        <v>1.549502937034446</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/19_localizer.xlsx
+++ b/sequences/19_localizer.xlsx
@@ -31,406 +31,493 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>dog</t>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
   </si>
   <si>
     <t>house/house047.jpg</t>
   </si>
   <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
   </si>
   <si>
     <t>dog/dog037.jpg</t>
   </si>
   <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
     <t>flower/flower043.jpg</t>
   </si>
   <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
   </si>
   <si>
     <t>flower/flower061.jpg</t>
   </si>
   <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
     <t>dog/dog054.jpg</t>
   </si>
   <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
   </si>
   <si>
     <t>dog/dog057.jpg</t>
   </si>
   <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
     <t>dog/dog049.jpg</t>
   </si>
   <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
+    <t>house/house048.jpg</t>
   </si>
   <si>
     <t>dog/dog050.jpg</t>
   </si>
   <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
     <t>flower/flower051.jpg</t>
   </si>
   <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
   </si>
   <si>
     <t>face/face078.jpg</t>
   </si>
   <si>
-    <t>house/house066.jpg</t>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
   </si>
   <si>
     <t>face/face070.jpg</t>
@@ -439,376 +526,289 @@
     <t>flower/flower075.jpg</t>
   </si>
   <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
   </si>
   <si>
     <t>house/house070.jpg</t>
   </si>
   <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
   </si>
   <si>
     <t>face/face067.jpg</t>
   </si>
   <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
   </si>
   <si>
     <t>dog/dog075.jpg</t>
   </si>
   <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
     <t>face/face064.jpg</t>
   </si>
   <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
   </si>
   <si>
     <t>dog/dog093.jpg</t>
   </si>
   <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
     <t>dog/dog094.jpg</t>
   </si>
   <si>
-    <t>face/face095.jpg</t>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
   </si>
   <si>
     <t>face/face081.jpg</t>
   </si>
   <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
   </si>
   <si>
     <t>house/house088.jpg</t>
   </si>
   <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
     <t>face/face088.jpg</t>
   </si>
   <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
+    <t>flower/flower090.jpg</t>
   </si>
   <si>
     <t>house/house090.jpg</t>
   </si>
   <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
     <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.777788735608458</v>
+        <v>1.530794742133236</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.474875415833564</v>
+        <v>1.453450827654522</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.57627137403211</v>
+        <v>1.443987647921788</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.613086532871944</v>
+        <v>1.458217482533188</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.363129781981443</v>
+        <v>1.258321533230622</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.399342459785332</v>
+        <v>1.2891269759787</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.544699059130318</v>
+        <v>1.596358900094494</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.428882169444106</v>
+        <v>1.433932606348622</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.609141232351125</v>
+        <v>1.49833734424314</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.500406350732509</v>
+        <v>1.37954089101448</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.783741749277547</v>
+        <v>1.326713695659073</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.308075197979894</v>
+        <v>1.579590501800779</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.239754010411866</v>
+        <v>1.317987134797351</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.370998084617089</v>
+        <v>1.600571746656382</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1.582839754735178</v>
+        <v>1.129694854932082</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.390171203786362</v>
+        <v>1.234131127075135</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1.50220192439988</v>
+        <v>1.438800953346361</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1.706760538909778</v>
+        <v>1.365493536444523</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.51865509724942</v>
+        <v>1.45262208834357</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.562034727887683</v>
+        <v>1.475173992189086</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.179015911171192</v>
+        <v>1.590623731803265</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.453538952874647</v>
+        <v>1.764519405661576</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.220410595643468</v>
+        <v>1.413762228061889</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.502927663200536</v>
+        <v>1.610942516338025</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1.589961282684902</v>
+        <v>1.678460906115206</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.311446394136992</v>
+        <v>1.447086896552347</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1.51856647586428</v>
+        <v>1.556407696177333</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.484140107415727</v>
+        <v>1.525528541827022</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.83553031469103</v>
+        <v>1.34288145244432</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.745722634880711</v>
+        <v>1.334883174999284</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.565991205688576</v>
+        <v>1.838178446034595</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.589111104315071</v>
+        <v>1.68799488856657</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.539671556475568</v>
+        <v>1.26101149222865</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.611118015502891</v>
+        <v>1.507153408292678</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.255453610516759</v>
+        <v>1.689474868404972</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.57386592030708</v>
+        <v>1.522881043708321</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.182813204805837</v>
+        <v>1.667626499756055</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1.457839968173127</v>
+        <v>1.252767614000603</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.560414456292757</v>
+        <v>1.441259709397444</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.579581070059169</v>
+        <v>1.703927081844921</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.431922532864189</v>
+        <v>1.645852348263371</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.601487683082158</v>
+        <v>1.798039142864773</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>1.595624037328413</v>
+        <v>1.503646582743777</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.578926743589147</v>
+        <v>1.77404369853538</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.563537183341015</v>
+        <v>1.464852347080877</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>1.555031673617802</v>
+        <v>1.568280105335229</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.289012006581767</v>
+        <v>1.499080472983428</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.510097136529249</v>
+        <v>1.582884634430668</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.657410177601942</v>
+        <v>1.630109799405859</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.672120680074821</v>
+        <v>1.439172368845886</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.223419684717723</v>
+        <v>1.440679736123934</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1.513502832057866</v>
+        <v>1.363901736415282</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1.170945602192838</v>
+        <v>1.681376816006822</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.473739627466982</v>
+        <v>1.263287595720777</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.365130850686089</v>
+        <v>1.34835477948511</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.625107521352411</v>
+        <v>1.426100324499545</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1.594302845010036</v>
+        <v>1.301817886879516</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.186500763723145</v>
+        <v>1.244538977803319</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.261832430338768</v>
+        <v>1.437409520705504</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.440203149702408</v>
+        <v>1.244097238119193</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>1.329325506763798</v>
+        <v>1.448952969847825</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.294287007093167</v>
+        <v>1.350260449760954</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.602664060147652</v>
+        <v>1.617591516747406</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1.441907332934794</v>
+        <v>1.586366275794062</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.292638369563466</v>
+        <v>1.456405160515613</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.572879358246541</v>
+        <v>1.534844000261135</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.623331979817475</v>
+        <v>1.392301977937166</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.706039753343362</v>
+        <v>1.570707431089078</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.746650910717933</v>
+        <v>1.637530425419844</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.375572268051678</v>
+        <v>1.175846426749426</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.496251032014945</v>
+        <v>1.491531735767981</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1.489385432205344</v>
+        <v>1.588549383367168</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.529409303279085</v>
+        <v>1.67693899070911</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.609452041002029</v>
+        <v>1.717731516243674</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.312030227657447</v>
+        <v>1.611773886082239</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>1.570045910777267</v>
+        <v>1.526652804925669</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.796185674388629</v>
+        <v>1.409435461559799</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.542335905064826</v>
+        <v>1.358410821704007</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.480941430628189</v>
+        <v>1.48911490731954</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.52692966873538</v>
+        <v>1.426509111413714</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.633147060949921</v>
+        <v>1.543276191422466</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.61340376575315</v>
+        <v>1.202859177406888</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.660718637411114</v>
+        <v>1.634066717586806</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.32861241041717</v>
+        <v>1.696723013752835</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.468448135091581</v>
+        <v>1.565051107446317</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.493954674619327</v>
+        <v>1.603536276476375</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.561258851947348</v>
+        <v>1.363774872598439</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>1.248325371380397</v>
+        <v>1.450490069388732</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.365801369720492</v>
+        <v>1.5033250977187</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.283773028981622</v>
+        <v>1.675338020714457</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.465279389491929</v>
+        <v>1.692197153001986</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.404326979189701</v>
+        <v>1.508338370041088</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.415789374936945</v>
+        <v>1.641109017405247</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.313142636432413</v>
+        <v>1.611807660639442</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>1.7261558230131</v>
+        <v>1.78796010836757</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>1.391850956086633</v>
+        <v>1.578870077940525</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>1.260323608971872</v>
+        <v>1.562882493068539</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.445503209084701</v>
+        <v>1.345494914333416</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.387882940424599</v>
+        <v>1.428689169931333</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.793549684988353</v>
+        <v>1.283406988174401</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.482889307020247</v>
+        <v>1.431270817675952</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>1.338937240239774</v>
+        <v>1.443606952486267</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.675948147840375</v>
+        <v>1.426750243470757</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.57244043865222</v>
+        <v>1.246387909517351</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.389297815924063</v>
+        <v>1.565613498664979</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1.393888258452085</v>
+        <v>1.454792475346776</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.638480366350261</v>
+        <v>1.343778273230787</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.65792227920046</v>
+        <v>1.346922038931754</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.537581478958923</v>
+        <v>1.366414069220634</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.730135405697286</v>
+        <v>1.399823661172391</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.35596080030308</v>
+        <v>1.449686248112968</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>1.466075024115935</v>
+        <v>1.523964219956087</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1.758619682995227</v>
+        <v>1.595266147382682</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.647418990205643</v>
+        <v>1.502039997763085</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.440601081985871</v>
+        <v>1.330859534116056</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.55511216201248</v>
+        <v>1.378386583007614</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.305649871576266</v>
+        <v>1.473527574766726</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>1.523883449312138</v>
+        <v>1.580221655092119</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.635827300555728</v>
+        <v>1.468868618251076</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.647909924247404</v>
+        <v>1.815647894731863</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.463352446120103</v>
+        <v>1.51753125953613</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.678335466273233</v>
+        <v>1.706306690667903</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.366853300910059</v>
+        <v>1.520191067370765</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.356543892682623</v>
+        <v>1.384238840764855</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>1.416471999476645</v>
+        <v>1.343734826480099</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.299414204628968</v>
+        <v>1.309385129696351</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.758773192952005</v>
+        <v>1.641170560703573</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>1.464071670325472</v>
+        <v>1.562558569894027</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.385456904244316</v>
+        <v>1.585198138501622</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>1.611596066695054</v>
+        <v>1.674110662695826</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132">
-        <v>1.329780903777855</v>
+        <v>1.387886863278089</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>1.290278073997165</v>
+        <v>1.215546785151995</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.535474678643201</v>
+        <v>1.577719375771506</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.703855350029178</v>
+        <v>1.488801488515977</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.379968968933525</v>
+        <v>1.45750255052427</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.544382995931808</v>
+        <v>1.48341550751335</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.334648854076574</v>
+        <v>1.541848870957746</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.349163124362446</v>
+        <v>1.516821739437937</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.648588702446621</v>
+        <v>1.60604693960599</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.717790780101709</v>
+        <v>1.438304474408768</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>1.662995103065802</v>
+        <v>1.584720190891212</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.65076411345646</v>
+        <v>1.315154917031419</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.45494751800995</v>
+        <v>1.643338071772452</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.200126874052868</v>
+        <v>1.664519429345082</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.499023976621211</v>
+        <v>1.259299624797463</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.679690978774788</v>
+        <v>1.569591151098389</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.26947584868176</v>
+        <v>1.580845417800381</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.283056412801887</v>
+        <v>1.069892927010687</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.777417070583695</v>
+        <v>1.478067590441734</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.257168739631758</v>
+        <v>1.318506301704356</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1.644334402694414</v>
+        <v>1.588061513069618</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1.468273853660378</v>
+        <v>1.285911330676684</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1.60212610565627</v>
+        <v>1.480832333040472</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155">
-        <v>1.524766603023266</v>
+        <v>1.274570773169239</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.352319266359971</v>
+        <v>1.42920992072554</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.466864602152549</v>
+        <v>1.430584504744388</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.506825115093809</v>
+        <v>1.302152678036259</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.561355085614207</v>
+        <v>1.737214406672905</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.639020259641972</v>
+        <v>1.49945499801744</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>1.667059294014795</v>
+        <v>1.541595604816874</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.445354323968584</v>
+        <v>1.533583587340353</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.399521525262013</v>
+        <v>1.598998017370704</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.62140875914175</v>
+        <v>1.472374365165572</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165">
-        <v>1.556835456385536</v>
+        <v>1.199044332818049</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.377625367608352</v>
+        <v>1.404535458687482</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.651070409986968</v>
+        <v>1.424666973110445</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.356676591896508</v>
+        <v>1.635617380018997</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.162423147047964</v>
+        <v>1.603472881123507</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.537479607911001</v>
+        <v>1.59547791245418</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.386639252287444</v>
+        <v>1.209638923121295</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.56971504861464</v>
+        <v>1.206034329923779</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>1.385891869568433</v>
+        <v>1.50429173699266</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.399854047157526</v>
+        <v>1.66651736062319</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>1.624792662456047</v>
+        <v>1.468326390182053</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.394031501053081</v>
+        <v>1.364961608889052</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.719255161474657</v>
+        <v>1.215585909869906</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.669342677486837</v>
+        <v>1.719176164309175</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.608225115428107</v>
+        <v>1.489822213385636</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.358239852771041</v>
+        <v>1.707506298230971</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.525051441719209</v>
+        <v>1.264558982281664</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.409655974446186</v>
+        <v>1.533454589687437</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.230217515852295</v>
+        <v>1.41225828197885</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.498233255965313</v>
+        <v>1.40557078299617</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.424649956335768</v>
+        <v>1.117573710297002</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.434682850744771</v>
+        <v>1.598797034418968</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.672559999454642</v>
+        <v>1.56082390455691</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1.435842862831884</v>
+        <v>1.531488803478589</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.445246921409756</v>
+        <v>1.361399001999114</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.611453767455839</v>
+        <v>1.524482492152538</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
-        <v>1.393407408311175</v>
+        <v>1.671741395894049</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.489226581897827</v>
+        <v>1.469447938634553</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.403436093442141</v>
+        <v>1.622854314957158</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.587198129053657</v>
+        <v>1.355726292022218</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.536807406325484</v>
+        <v>1.555405096694892</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.732432315776009</v>
+        <v>1.344515962646778</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.515256048666747</v>
+        <v>1.598383234977507</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.547505557668129</v>
+        <v>1.523461102576473</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.463870421794856</v>
+        <v>1.476084479765676</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.68945508482358</v>
+        <v>1.340916985503267</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.57189297067944</v>
+        <v>1.459506693241343</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>1.653096761835474</v>
+        <v>1.332432479532944</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.284379399302832</v>
+        <v>1.317911503996427</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.282854436088091</v>
+        <v>1.489304697360084</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.543074636785568</v>
+        <v>1.291002776541555</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.547210903348095</v>
+        <v>1.476487781906521</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1.421337358998331</v>
+        <v>1.326893440919733</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208">
-        <v>1.386058520727372</v>
+        <v>1.459063957351542</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.375941731576715</v>
+        <v>1.683608255338535</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.589242378984999</v>
+        <v>1.300378087987797</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.425838348393622</v>
+        <v>1.5085556145016</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>1.390665441745206</v>
+        <v>1.394412785208424</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.346179267609123</v>
+        <v>1.520775330815091</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.345075203363937</v>
+        <v>1.476408960387887</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.653961162870093</v>
+        <v>1.61470881327735</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.565349323455839</v>
+        <v>1.487920853751974</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1.586240323776853</v>
+        <v>1.464773119654287</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.397533841739001</v>
+        <v>1.353701575213544</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>1.568812538135757</v>
+        <v>1.683210275098365</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.445079083881879</v>
+        <v>1.228395239830225</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>1.530737044098629</v>
+        <v>1.490485582572452</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222">
-        <v>1.677509856884045</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>1.407094765990651</v>
+        <v>1.436008711782886</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.602200580789089</v>
+        <v>1.433172970598722</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.497293797994111</v>
+        <v>1.702595731516083</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.48312992265615</v>
+        <v>1.460230164810435</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.601829284919971</v>
+        <v>1.491263383419074</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.78144090753481</v>
+        <v>1.586377696224596</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.535629012577854</v>
+        <v>1.634026521911947</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.459324541461195</v>
+        <v>1.289749427387633</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.590380245235268</v>
+        <v>1.581943226931842</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>1</v>
       </c>
       <c r="F232">
-        <v>1.577492010875382</v>
+        <v>1.515546749362585</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.444629149003821</v>
+        <v>1.530231805955119</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.602862113058149</v>
+        <v>1.324166665982088</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.342865839560165</v>
+        <v>1.3463415271901</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.376519446105151</v>
+        <v>1.576941657751668</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.303368766886634</v>
+        <v>1.530786931522147</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.377525990913917</v>
+        <v>1.374078535317521</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.801716867095659</v>
+        <v>1.695015568907677</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.396353999101736</v>
+        <v>1.654464735495896</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.593491646452844</v>
+        <v>1.658014267044338</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.465254350130539</v>
+        <v>1.373526950810556</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.619944325723815</v>
+        <v>1.828273815164261</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.474242954238848</v>
+        <v>1.42754537727895</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.479292473240859</v>
+        <v>1.710749400127528</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.219178160519131</v>
+        <v>1.430352854055745</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.353366178767373</v>
+        <v>1.596511403611738</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.510015646081134</v>
+        <v>1.553614950768367</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.52775747192681</v>
+        <v>1.459640646073368</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>1</v>
       </c>
       <c r="F250">
-        <v>1.564067788250856</v>
+        <v>1.506569003303839</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.471480179316591</v>
+        <v>1.302575103468574</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.390833661373445</v>
+        <v>1.589148782364334</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253">
-        <v>1.297888651766136</v>
+        <v>1.365035998483141</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.549802219259233</v>
+        <v>1.160994468026691</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.414677196641503</v>
+        <v>1.541357515736575</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.539300345211524</v>
+        <v>1.621256136805809</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.549502937034446</v>
+        <v>1.352354887339036</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/19_localizer.xlsx
+++ b/sequences/19_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>house</t>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
   </si>
   <si>
     <t>flower/flower042.jpg</t>
   </si>
   <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
     <t>face/face046.jpg</t>
   </si>
   <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
+    <t>face/face035.jpg</t>
   </si>
   <si>
     <t>face/face042.jpg</t>
   </si>
   <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
   </si>
   <si>
     <t>flower/flower058.jpg</t>
   </si>
   <si>
-    <t>face/face056.jpg</t>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
   </si>
   <si>
     <t>dog/dog053.jpg</t>
   </si>
   <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
   </si>
   <si>
     <t>dog/dog056.jpg</t>
   </si>
   <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
+    <t>face/face063.jpg</t>
   </si>
   <si>
     <t>face/face051.jpg</t>
   </si>
   <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
     <t>house/house062.jpg</t>
   </si>
   <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
   </si>
   <si>
     <t>house/house065.jpg</t>
   </si>
   <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
     <t>face/face066.jpg</t>
   </si>
   <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
     <t>face/face075.jpg</t>
   </si>
   <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
     <t>flower/flower073.jpg</t>
   </si>
   <si>
-    <t>house/house072.jpg</t>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
   </si>
   <si>
     <t>face/face071.jpg</t>
   </si>
   <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
   </si>
   <si>
     <t>face/face068.jpg</t>
   </si>
   <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
+    <t>flower/flower070.jpg</t>
   </si>
   <si>
     <t>face/face076.jpg</t>
   </si>
   <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
   </si>
   <si>
     <t>house/house091.jpg</t>
   </si>
   <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
     <t>flower/flower092.jpg</t>
   </si>
   <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
   </si>
   <si>
     <t>face/face082.jpg</t>
   </si>
   <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
     <t>flower/flower088.jpg</t>
   </si>
   <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
     <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.530794742133236</v>
+        <v>1.284896399484202</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.453450827654522</v>
+        <v>1.566289396589147</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.443987647921788</v>
+        <v>1.62736664616573</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.458217482533188</v>
+        <v>1.705920102754942</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1.258321533230622</v>
+        <v>1.479354044658289</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.2891269759787</v>
+        <v>1.416531346009252</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.596358900094494</v>
+        <v>1.320150100784796</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.433932606348622</v>
+        <v>1.476132292477502</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.49833734424314</v>
+        <v>1.276032890334865</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.37954089101448</v>
+        <v>1.416174964862658</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1.326713695659073</v>
+        <v>1.596447189672154</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.579590501800779</v>
+        <v>1.441449614815512</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.317987134797351</v>
+        <v>1.580714659220441</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.600571746656382</v>
+        <v>1.368890307953963</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1.129694854932082</v>
+        <v>1.588871467736557</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1.234131127075135</v>
+        <v>1.500575968319156</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.438800953346361</v>
+        <v>1.289537483997589</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.365493536444523</v>
+        <v>1.430155689313626</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.45262208834357</v>
+        <v>1.523732926570178</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.475173992189086</v>
+        <v>1.397734924467494</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.590623731803265</v>
+        <v>1.781859327905477</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.764519405661576</v>
+        <v>1.567047721493491</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1.413762228061889</v>
+        <v>1.788232686889469</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.610942516338025</v>
+        <v>1.583477371579454</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.678460906115206</v>
+        <v>1.496700928201173</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.447086896552347</v>
+        <v>1.521959663942034</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.556407696177333</v>
+        <v>1.535489805071195</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.525528541827022</v>
+        <v>1.595838314050215</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.34288145244432</v>
+        <v>1.479239011961349</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.334883174999284</v>
+        <v>1.27044104438014</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.838178446034595</v>
+        <v>1.322243549550872</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.68799488856657</v>
+        <v>1.631747946668223</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.26101149222865</v>
+        <v>1.433496265532954</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.507153408292678</v>
+        <v>1.54164145004161</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.689474868404972</v>
+        <v>1.411092063308332</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.522881043708321</v>
+        <v>1.526420591076332</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.667626499756055</v>
+        <v>1.287888759795097</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1.252767614000603</v>
+        <v>1.326114303314105</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.441259709397444</v>
+        <v>1.457470674399593</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.703927081844921</v>
+        <v>1.714029102202353</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.645852348263371</v>
+        <v>1.528072854345478</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.798039142864773</v>
+        <v>1.585751922347982</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1.503646582743777</v>
+        <v>1.354783850406519</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.77404369853538</v>
+        <v>1.400775797957051</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.464852347080877</v>
+        <v>1.350365737219845</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>1.568280105335229</v>
+        <v>1.52985994967443</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.499080472983428</v>
+        <v>1.517855362008377</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.582884634430668</v>
+        <v>1.525603814849782</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1.630109799405859</v>
+        <v>1.710250820694569</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.439172368845886</v>
+        <v>1.580200282145609</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.440679736123934</v>
+        <v>1.444051019982386</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.363901736415282</v>
+        <v>1.464520992956375</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.681376816006822</v>
+        <v>1.665119979600405</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.263287595720777</v>
+        <v>1.395153552416655</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.34835477948511</v>
+        <v>1.484771823556426</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.426100324499545</v>
+        <v>1.467803263045191</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.301817886879516</v>
+        <v>1.469821214976441</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.244538977803319</v>
+        <v>1.27533120541454</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.437409520705504</v>
+        <v>1.596044121364043</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.244097238119193</v>
+        <v>1.271749138986552</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>1.448952969847825</v>
+        <v>1.631193825983858</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.350260449760954</v>
+        <v>1.515209445247898</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.617591516747406</v>
+        <v>1.200562952703412</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.586366275794062</v>
+        <v>1.53858553672126</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.456405160515613</v>
+        <v>1.411442440649656</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.534844000261135</v>
+        <v>1.487523874064356</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.392301977937166</v>
+        <v>1.300111513489383</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.570707431089078</v>
+        <v>1.339650076731585</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.637530425419844</v>
+        <v>1.641882770817119</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.175846426749426</v>
+        <v>1.471848380551477</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.491531735767981</v>
+        <v>1.60061385392636</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.588549383367168</v>
+        <v>1.31282407346955</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.67693899070911</v>
+        <v>1.339832979558253</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.717731516243674</v>
+        <v>1.627114797938156</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.611773886082239</v>
+        <v>1.338795217441642</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.526652804925669</v>
+        <v>1.272061787008583</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.409435461559799</v>
+        <v>1.731347961258312</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.358410821704007</v>
+        <v>1.54913918078398</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.48911490731954</v>
+        <v>1.475250311944249</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.426509111413714</v>
+        <v>1.364755424552778</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>1.543276191422466</v>
+        <v>1.59581507970541</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.202859177406888</v>
+        <v>1.356695474618669</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>1.634066717586806</v>
+        <v>1.440082100069746</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.696723013752835</v>
+        <v>1.557672854593271</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.565051107446317</v>
+        <v>1.53542706131513</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.603536276476375</v>
+        <v>1.694628608103754</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.363774872598439</v>
+        <v>1.586529864636183</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1.450490069388732</v>
+        <v>1.474779941587191</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>1.5033250977187</v>
+        <v>1.559216766401823</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.675338020714457</v>
+        <v>1.132993584242604</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.692197153001986</v>
+        <v>1.681513759190351</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.508338370041088</v>
+        <v>1.604332570561814</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.641109017405247</v>
+        <v>1.598140441015941</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>1.611807660639442</v>
+        <v>1.584516951913552</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>1.78796010836757</v>
+        <v>1.590103083212681</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>1.578870077940525</v>
+        <v>1.618332521832479</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1.562882493068539</v>
+        <v>1.470955828330113</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.345494914333416</v>
+        <v>1.211187037541735</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>1.428689169931333</v>
+        <v>1.471057550117031</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.283406988174401</v>
+        <v>1.635772209121489</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.431270817675952</v>
+        <v>1.778513308330461</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>1.443606952486267</v>
+        <v>1.525470739848726</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.426750243470757</v>
+        <v>1.407522564087678</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.246387909517351</v>
+        <v>1.369496115209143</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>1.565613498664979</v>
+        <v>1.635209566756857</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.454792475346776</v>
+        <v>1.327409372563028</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.343778273230787</v>
+        <v>1.300718183886871</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.346922038931754</v>
+        <v>1.64371700870909</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.366414069220634</v>
+        <v>1.535936281210373</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>1.399823661172391</v>
+        <v>1.688729162306013</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.449686248112968</v>
+        <v>1.501515679121917</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>1.523964219956087</v>
+        <v>1.577805643671768</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.595266147382682</v>
+        <v>1.185708656522006</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.502039997763085</v>
+        <v>1.491812211754464</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.330859534116056</v>
+        <v>1.265610211774232</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.378386583007614</v>
+        <v>1.386463680018169</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.473527574766726</v>
+        <v>1.669572175418288</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1.580221655092119</v>
+        <v>1.43444406233268</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.468868618251076</v>
+        <v>1.524710377466937</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.815647894731863</v>
+        <v>1.604843253071055</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.51753125953613</v>
+        <v>1.523879045173278</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.706306690667903</v>
+        <v>1.36963950907477</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>1.520191067370765</v>
+        <v>1.270032654892304</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.384238840764855</v>
+        <v>1.586203429148394</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.343734826480099</v>
+        <v>1.527923117624863</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.309385129696351</v>
+        <v>1.45020022672593</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.641170560703573</v>
+        <v>1.533370758566521</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.562558569894027</v>
+        <v>1.665360718461381</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.585198138501622</v>
+        <v>1.616656877392047</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.674110662695826</v>
+        <v>1.277508187466109</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>1.387886863278089</v>
+        <v>1.472907650238574</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.215546785151995</v>
+        <v>1.534310352005556</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.577719375771506</v>
+        <v>1.435016662692366</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.488801488515977</v>
+        <v>1.588349937373867</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.45750255052427</v>
+        <v>1.675209085980433</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.48341550751335</v>
+        <v>1.524163535037427</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.541848870957746</v>
+        <v>1.608565755795942</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.516821739437937</v>
+        <v>1.503548898917759</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.60604693960599</v>
+        <v>1.637778086281032</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.438304474408768</v>
+        <v>1.647420704790292</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.584720190891212</v>
+        <v>1.391358258597594</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>1.315154917031419</v>
+        <v>1.803132521265205</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.643338071772452</v>
+        <v>1.435878165529905</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.664519429345082</v>
+        <v>1.329675436208957</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.259299624797463</v>
+        <v>1.340876584601479</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.569591151098389</v>
+        <v>1.747991764628745</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.580845417800381</v>
+        <v>1.355437442386948</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1.069892927010687</v>
+        <v>1.505653797149927</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.478067590441734</v>
+        <v>1.355927201943772</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.318506301704356</v>
+        <v>1.42943574006662</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.588061513069618</v>
+        <v>1.50750489432452</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>1</v>
       </c>
       <c r="F153">
-        <v>1.285911330676684</v>
+        <v>1.300513581616046</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.480832333040472</v>
+        <v>1.44733327407579</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>1</v>
       </c>
       <c r="F155">
-        <v>1.274570773169239</v>
+        <v>1.616657022652241</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.42920992072554</v>
+        <v>1.82264595036795</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.430584504744388</v>
+        <v>1.478028175414993</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.302152678036259</v>
+        <v>1.527712578685576</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.737214406672905</v>
+        <v>1.492929757657898</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.49945499801744</v>
+        <v>1.709492315581823</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.541595604816874</v>
+        <v>1.475747378878371</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.533583587340353</v>
+        <v>1.635755936790001</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.598998017370704</v>
+        <v>1.46444486655011</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.472374365165572</v>
+        <v>1.448905249496464</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1.199044332818049</v>
+        <v>1.501697953485669</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.404535458687482</v>
+        <v>1.250495675335912</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.424666973110445</v>
+        <v>1.745315987851618</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168">
-        <v>1.635617380018997</v>
+        <v>1.514553610422845</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>1.603472881123507</v>
+        <v>1.487339453240127</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.59547791245418</v>
+        <v>1.413028274485071</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.209638923121295</v>
+        <v>1.300647146326773</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.206034329923779</v>
+        <v>1.418427547756917</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1.50429173699266</v>
+        <v>1.554169904767945</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.66651736062319</v>
+        <v>1.636325785317331</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.468326390182053</v>
+        <v>1.698107664052288</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.364961608889052</v>
+        <v>1.504131559325173</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.215585909869906</v>
+        <v>1.541892998416536</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.719176164309175</v>
+        <v>1.230250920627447</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1.489822213385636</v>
+        <v>1.551464226838708</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180">
-        <v>1.707506298230971</v>
+        <v>1.441845192278927</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.264558982281664</v>
+        <v>1.457178709620204</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.533454589687437</v>
+        <v>1.632347814311791</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.41225828197885</v>
+        <v>1.168537555208028</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.40557078299617</v>
+        <v>1.558657081664937</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185">
-        <v>1.117573710297002</v>
+        <v>1.511940400322429</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.598797034418968</v>
+        <v>1.773376562221826</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.56082390455691</v>
+        <v>1.486112838493396</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.531488803478589</v>
+        <v>1.407308240240374</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.361399001999114</v>
+        <v>1.570294572597643</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.524482492152538</v>
+        <v>1.567186788868623</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>1.671741395894049</v>
+        <v>1.527467748970895</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.469447938634553</v>
+        <v>1.289682882533313</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.622854314957158</v>
+        <v>1.460274592634672</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.355726292022218</v>
+        <v>1.395372979599922</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.555405096694892</v>
+        <v>1.60004536810445</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.344515962646778</v>
+        <v>1.510643620179357</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.598383234977507</v>
+        <v>1.684281782793199</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.523461102576473</v>
+        <v>1.808838501454462</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.476084479765676</v>
+        <v>1.536435602175124</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.340916985503267</v>
+        <v>1.270904950043136</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.459506693241343</v>
+        <v>1.711324167937516</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="F202">
-        <v>1.332432479532944</v>
+        <v>1.578068602842148</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203">
-        <v>1.317911503996427</v>
+        <v>1.483728258564961</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.489304697360084</v>
+        <v>1.519653071391821</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.291002776541555</v>
+        <v>1.42344569371458</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.476487781906521</v>
+        <v>1.718394587198349</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.326893440919733</v>
+        <v>1.548955339601166</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>1.459063957351542</v>
+        <v>1.476980245023847</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.683608255338535</v>
+        <v>1.419376496911942</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.300378087987797</v>
+        <v>1.64078425953316</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.5085556145016</v>
+        <v>1.610764957840084</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1.394412785208424</v>
+        <v>1.525300387243452</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.520775330815091</v>
+        <v>1.766144281840415</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.476408960387887</v>
+        <v>1.229776723285252</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.61470881327735</v>
+        <v>1.678979880508522</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.487920853751974</v>
+        <v>1.614077481264101</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>1.464773119654287</v>
+        <v>1.593078747183111</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.353701575213544</v>
+        <v>1.701593644820517</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>1.683210275098365</v>
+        <v>1.377153157255669</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.228395239830225</v>
+        <v>1.608411154474123</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.490485582572452</v>
+        <v>1.562375359837968</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>1.277817215444171</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223">
-        <v>1.436008711782886</v>
+        <v>1.495108196073629</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.433172970598722</v>
+        <v>1.723428269224948</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>1.702595731516083</v>
+        <v>1.491965226528445</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.460230164810435</v>
+        <v>1.580390774182873</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.491263383419074</v>
+        <v>1.596394031561237</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.586377696224596</v>
+        <v>1.316170962426556</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.634026521911947</v>
+        <v>1.589098685192454</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.289749427387633</v>
+        <v>1.622383668119943</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.581943226931842</v>
+        <v>1.551836643624088</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1.515546749362585</v>
+        <v>1.758354996903453</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.530231805955119</v>
+        <v>1.487079417441804</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.324166665982088</v>
+        <v>1.834152128057628</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.3463415271901</v>
+        <v>1.661609221623167</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.576941657751668</v>
+        <v>1.42491625746361</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237">
-        <v>1.530786931522147</v>
+        <v>1.473612043894192</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.374078535317521</v>
+        <v>1.859086209130965</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.695015568907677</v>
+        <v>1.745966405331527</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.654464735495896</v>
+        <v>1.351324740056278</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.658014267044338</v>
+        <v>1.809183390185651</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.373526950810556</v>
+        <v>1.390159892090138</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>1.828273815164261</v>
+        <v>1.474579515037184</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.42754537727895</v>
+        <v>1.133914572791846</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.710749400127528</v>
+        <v>1.530668141542099</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.430352854055745</v>
+        <v>1.56728382822183</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.596511403611738</v>
+        <v>1.374260794599587</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.553614950768367</v>
+        <v>1.526299162496048</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.459640646073368</v>
+        <v>1.517901064410838</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>1.506569003303839</v>
+        <v>1.473068530692831</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.302575103468574</v>
+        <v>1.592054466893559</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.589148782364334</v>
+        <v>1.318729597383453</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>1.365035998483141</v>
+        <v>1.288646060972467</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.160994468026691</v>
+        <v>1.404510547118263</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.541357515736575</v>
+        <v>1.459750502272564</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.621256136805809</v>
+        <v>1.591070863072746</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.352354887339036</v>
+        <v>1.319346257009915</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/19_localizer.xlsx
+++ b/sequences/19_localizer.xlsx
@@ -37,778 +37,778 @@
     <t>flower</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>face</t>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
   </si>
   <si>
     <t>house/house044.jpg</t>
   </si>
   <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
   </si>
   <si>
     <t>flower/flower037.jpg</t>
   </si>
   <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
     <t>face/face045.jpg</t>
   </si>
   <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
   </si>
   <si>
     <t>dog/dog047.jpg</t>
   </si>
   <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
     <t>house/house040.jpg</t>
   </si>
   <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
     <t>dog/dog043.jpg</t>
   </si>
   <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
   </si>
   <si>
     <t>flower/flower052.jpg</t>
   </si>
   <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
     <t>house/house056.jpg</t>
   </si>
   <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
     <t>house/house050.jpg</t>
   </si>
   <si>
-    <t>house/house054.jpg</t>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
   </si>
   <si>
     <t>dog/dog060.jpg</t>
   </si>
   <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
   </si>
   <si>
     <t>flower/flower051.jpg</t>
   </si>
   <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
   </si>
   <si>
     <t>house/house078.jpg</t>
   </si>
   <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
     <t>flower/flower075.jpg</t>
   </si>
   <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
   </si>
   <si>
     <t>flower/flower080.jpg</t>
   </si>
   <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
   </si>
   <si>
     <t>house/house080.jpg</t>
   </si>
   <si>
-    <t>house/house087.jpg</t>
+    <t>flower/flower084.jpg</t>
   </si>
   <si>
     <t>dog/dog093.jpg</t>
   </si>
   <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
+    <t>house/house089.jpg</t>
   </si>
   <si>
     <t>dog/dog080.jpg</t>
   </si>
   <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
     <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.284896399484202</v>
+        <v>1.460615086610835</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.566289396589147</v>
+        <v>1.599524538704932</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.62736664616573</v>
+        <v>1.457461098787564</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1.705920102754942</v>
+        <v>1.515159179256059</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.479354044658289</v>
+        <v>1.561602019317672</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.416531346009252</v>
+        <v>1.4922070669099</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.320150100784796</v>
+        <v>1.183356512126141</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.476132292477502</v>
+        <v>1.46501548468705</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.276032890334865</v>
+        <v>1.463974140062454</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.416174964862658</v>
+        <v>1.549791081654255</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1.596447189672154</v>
+        <v>1.52527542082171</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.441449614815512</v>
+        <v>1.609331016624711</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.580714659220441</v>
+        <v>1.394058407497599</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.368890307953963</v>
+        <v>1.499650131321459</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1.588871467736557</v>
+        <v>1.502321092622628</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1.500575968319156</v>
+        <v>1.503100915336693</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.289537483997589</v>
+        <v>1.787672002804657</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.430155689313626</v>
+        <v>1.423181120080612</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.523732926570178</v>
+        <v>1.639199193004462</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.397734924467494</v>
+        <v>1.459547137650592</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1.781859327905477</v>
+        <v>1.536152730549516</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.567047721493491</v>
+        <v>1.682551036482062</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1.788232686889469</v>
+        <v>1.597787595560781</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.583477371579454</v>
+        <v>1.49359290768236</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.496700928201173</v>
+        <v>1.620244243549051</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.521959663942034</v>
+        <v>1.495952295223065</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.535489805071195</v>
+        <v>1.508040797035916</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.595838314050215</v>
+        <v>1.414684493721764</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.479239011961349</v>
+        <v>1.747865094778848</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1.27044104438014</v>
+        <v>1.387761540610039</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.322243549550872</v>
+        <v>1.376089297995858</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.631747946668223</v>
+        <v>1.655237988000486</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.433496265532954</v>
+        <v>1.863779143935181</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.54164145004161</v>
+        <v>1.506895989156925</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.411092063308332</v>
+        <v>1.610505177912558</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.526420591076332</v>
+        <v>1.560567220131835</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.287888759795097</v>
+        <v>1.439036454150052</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1.326114303314105</v>
+        <v>1.392401986555974</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.457470674399593</v>
+        <v>1.289338077826456</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.714029102202353</v>
+        <v>1.381763239673049</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.528072854345478</v>
+        <v>1.404327549994736</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.585751922347982</v>
+        <v>1.316069024048141</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>1.354783850406519</v>
+        <v>1.391509405291913</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.400775797957051</v>
+        <v>1.571655875791966</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.350365737219845</v>
+        <v>1.520535836278959</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1.52985994967443</v>
+        <v>1.276432354232332</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.517855362008377</v>
+        <v>1.260617636443798</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.525603814849782</v>
+        <v>1.290085842596754</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1.710250820694569</v>
+        <v>1.559198392396943</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.580200282145609</v>
+        <v>1.312048480947817</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.444051019982386</v>
+        <v>1.507736539628217</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.464520992956375</v>
+        <v>1.369801901033655</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.665119979600405</v>
+        <v>1.654962072162864</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.395153552416655</v>
+        <v>1.389614475897851</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.484771823556426</v>
+        <v>1.461499043366965</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.467803263045191</v>
+        <v>1.650522750908165</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.469821214976441</v>
+        <v>1.468076944406767</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.27533120541454</v>
+        <v>1.366661647898646</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.596044121364043</v>
+        <v>1.358798739749662</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.271749138986552</v>
+        <v>1.336414205741161</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.631193825983858</v>
+        <v>1.516238835160182</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.515209445247898</v>
+        <v>1.700012289117084</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.200562952703412</v>
+        <v>1.559341468289852</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.53858553672126</v>
+        <v>1.182232490991072</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.411442440649656</v>
+        <v>1.378100313336796</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.487523874064356</v>
+        <v>1.315923972381678</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1.300111513489383</v>
+        <v>1.405486403951504</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.339650076731585</v>
+        <v>1.52233318520432</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.641882770817119</v>
+        <v>1.450773768065752</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.471848380551477</v>
+        <v>1.354989066604098</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.60061385392636</v>
+        <v>1.389767777839876</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.31282407346955</v>
+        <v>1.259507022550967</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.339832979558253</v>
+        <v>1.450792495898085</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.627114797938156</v>
+        <v>1.915811945837278</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.338795217441642</v>
+        <v>1.491702332895583</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.272061787008583</v>
+        <v>1.451848578661664</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.731347961258312</v>
+        <v>1.461789769345736</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.54913918078398</v>
+        <v>1.50029081941689</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.475250311944249</v>
+        <v>1.444270167713809</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.364755424552778</v>
+        <v>1.683638345652825</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>1.59581507970541</v>
+        <v>1.7458035629097</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.356695474618669</v>
+        <v>1.284276659829956</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>1.440082100069746</v>
+        <v>1.534446752844662</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.557672854593271</v>
+        <v>1.341463523741666</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.53542706131513</v>
+        <v>1.484322914930293</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.694628608103754</v>
+        <v>1.458042443876511</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.586529864636183</v>
+        <v>1.473201089262793</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.474779941587191</v>
+        <v>1.412514650513644</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="F90">
-        <v>1.559216766401823</v>
+        <v>1.512753130006975</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.132993584242604</v>
+        <v>1.689326793079061</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.681513759190351</v>
+        <v>1.681548456738556</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.604332570561814</v>
+        <v>1.281761537648271</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1.598140441015941</v>
+        <v>1.285592881716685</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>1.584516951913552</v>
+        <v>1.629696070114005</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.590103083212681</v>
+        <v>1.4326973711856</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>1.618332521832479</v>
+        <v>1.766331061249723</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.470955828330113</v>
+        <v>1.275603358635666</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.211187037541735</v>
+        <v>1.529269144785214</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>1.471057550117031</v>
+        <v>1.583696594990771</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.635772209121489</v>
+        <v>1.307694908886857</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>1.778513308330461</v>
+        <v>1.196678494997256</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.525470739848726</v>
+        <v>1.628121208790608</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.407522564087678</v>
+        <v>1.431892020792122</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.369496115209143</v>
+        <v>1.556902287235866</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>1.635209566756857</v>
+        <v>1.498481132216741</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.327409372563028</v>
+        <v>1.60632650372284</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.300718183886871</v>
+        <v>1.455369177654673</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.64371700870909</v>
+        <v>1.322572498392985</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.535936281210373</v>
+        <v>1.294524958841013</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>1.688729162306013</v>
+        <v>1.436887382481703</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.501515679121917</v>
+        <v>1.645826530304584</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.577805643671768</v>
+        <v>1.749218821362297</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.185708656522006</v>
+        <v>1.215440467282103</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.491812211754464</v>
+        <v>1.382120965245502</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.265610211774232</v>
+        <v>1.614495655199203</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.386463680018169</v>
+        <v>1.318313642192029</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.669572175418288</v>
+        <v>1.530345465617401</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.43444406233268</v>
+        <v>1.772099498582596</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.524710377466937</v>
+        <v>1.724726934166094</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.604843253071055</v>
+        <v>1.296946391514858</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>1.523879045173278</v>
+        <v>1.655906267315472</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.36963950907477</v>
+        <v>1.556655504007205</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.270032654892304</v>
+        <v>1.823481635242419</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.586203429148394</v>
+        <v>1.638152122345196</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>1.527923117624863</v>
+        <v>1.670506475338223</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.45020022672593</v>
+        <v>1.739516680731442</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>1.533370758566521</v>
+        <v>1.2625463109029</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.665360718461381</v>
+        <v>1.568938847644672</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.616656877392047</v>
+        <v>1.379195587598657</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.277508187466109</v>
+        <v>1.313555953717373</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.472907650238574</v>
+        <v>1.536059024771577</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.534310352005556</v>
+        <v>1.318886289058767</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.435016662692366</v>
+        <v>1.243997406065606</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.588349937373867</v>
+        <v>1.546530864687952</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.675209085980433</v>
+        <v>1.49986088539334</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.524163535037427</v>
+        <v>1.594397692727559</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.608565755795942</v>
+        <v>1.443559463477106</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.503548898917759</v>
+        <v>1.497775482028934</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.637778086281032</v>
+        <v>1.79019581545378</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.647420704790292</v>
+        <v>1.750554937301596</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.391358258597594</v>
+        <v>1.590498784669153</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1.803132521265205</v>
+        <v>1.696910698851656</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.435878165529905</v>
+        <v>1.853094873174846</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.329675436208957</v>
+        <v>1.419886315306357</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.340876584601479</v>
+        <v>1.216470825292839</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>1.747991764628745</v>
+        <v>1.671394482389745</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>1.355437442386948</v>
+        <v>1.369732328861478</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.505653797149927</v>
+        <v>1.619482535912667</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.355927201943772</v>
+        <v>1.412555766820965</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.42943574006662</v>
+        <v>1.606367228764434</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.50750489432452</v>
+        <v>1.469525219342794</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.300513581616046</v>
+        <v>1.436763026556027</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.44733327407579</v>
+        <v>1.638706898648002</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>1.616657022652241</v>
+        <v>1.656345378470657</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.82264595036795</v>
+        <v>1.643034721819057</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.478028175414993</v>
+        <v>1.640113571858169</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.527712578685576</v>
+        <v>1.641900905861807</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.492929757657898</v>
+        <v>1.497340553599518</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.709492315581823</v>
+        <v>1.369922440507702</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.475747378878371</v>
+        <v>1.580810742585859</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.635755936790001</v>
+        <v>1.168769349176287</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163">
-        <v>1.46444486655011</v>
+        <v>1.400427152465882</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.448905249496464</v>
+        <v>1.522364331991966</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.501697953485669</v>
+        <v>1.485129964660231</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.250495675335912</v>
+        <v>1.43808887578971</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.745315987851618</v>
+        <v>1.354400442991563</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>1.514553610422845</v>
+        <v>1.483241814543587</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.487339453240127</v>
+        <v>1.645584281974609</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.413028274485071</v>
+        <v>1.378606995138243</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.300647146326773</v>
+        <v>1.461243407815664</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.418427547756917</v>
+        <v>1.651427198257394</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.554169904767945</v>
+        <v>1.441815579275575</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>1.636325785317331</v>
+        <v>1.427091179317368</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.698107664052288</v>
+        <v>1.437729869604146</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.504131559325173</v>
+        <v>1.282569479420328</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>1.541892998416536</v>
+        <v>1.430449048558773</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.230250920627447</v>
+        <v>1.051030096747775</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.551464226838708</v>
+        <v>1.680639205577842</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>1.441845192278927</v>
+        <v>1.542499080626491</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.457178709620204</v>
+        <v>1.654546526385791</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.632347814311791</v>
+        <v>1.402565005065607</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.168537555208028</v>
+        <v>1.560992247544718</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.558657081664937</v>
+        <v>1.375918981701427</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>1.511940400322429</v>
+        <v>1.604623863187911</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.773376562221826</v>
+        <v>1.580796213906855</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.486112838493396</v>
+        <v>1.440726294556879</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.407308240240374</v>
+        <v>1.519203549773833</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189">
-        <v>1.570294572597643</v>
+        <v>1.719668372551549</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.567186788868623</v>
+        <v>1.606432562370516</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
-        <v>1.527467748970895</v>
+        <v>1.820829781560631</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.289682882533313</v>
+        <v>1.442719517516539</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.460274592634672</v>
+        <v>1.518451386361307</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.395372979599922</v>
+        <v>1.658688356980019</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.60004536810445</v>
+        <v>1.757951513894796</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.510643620179357</v>
+        <v>1.433695882274841</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.684281782793199</v>
+        <v>1.43470763228316</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.808838501454462</v>
+        <v>1.456077952887098</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.536435602175124</v>
+        <v>1.565181087561705</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.270904950043136</v>
+        <v>1.322933171979513</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
-        <v>1.711324167937516</v>
+        <v>1.465923783229145</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="F202">
-        <v>1.578068602842148</v>
+        <v>1.50140968717686</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>1.483728258564961</v>
+        <v>1.577490343872589</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.519653071391821</v>
+        <v>1.353562370926038</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.42344569371458</v>
+        <v>1.605543302375295</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.718394587198349</v>
+        <v>1.628356544110034</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.548955339601166</v>
+        <v>1.745745340010354</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.476980245023847</v>
+        <v>1.612194990632379</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.419376496911942</v>
+        <v>1.355299361149841</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.64078425953316</v>
+        <v>1.438432878738715</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.610764957840084</v>
+        <v>1.660797650192992</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.525300387243452</v>
+        <v>1.569092214321362</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.766144281840415</v>
+        <v>1.503706084198725</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.229776723285252</v>
+        <v>1.347397360380009</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.678979880508522</v>
+        <v>1.395928580741489</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.614077481264101</v>
+        <v>1.51200190338378</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1.593078747183111</v>
+        <v>1.751715557296532</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.701593644820517</v>
+        <v>1.508841024775639</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.377153157255669</v>
+        <v>1.459608021090141</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
-        <v>1.608411154474123</v>
+        <v>1.347688485263483</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.562375359837968</v>
+        <v>1.553376105825558</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.277817215444171</v>
+        <v>1.588706434284031</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>1.495108196073629</v>
+        <v>1.466337585830151</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.723428269224948</v>
+        <v>1.29302807133688</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>1.491965226528445</v>
+        <v>1.426474960053514</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.580390774182873</v>
+        <v>1.44257886343369</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.596394031561237</v>
+        <v>1.598821815888039</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228">
-        <v>1.316170962426556</v>
+        <v>1.505436823193213</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.589098685192454</v>
+        <v>1.43025141888091</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.622383668119943</v>
+        <v>1.719092942931992</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.551836643624088</v>
+        <v>1.755770226214407</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.758354996903453</v>
+        <v>1.70314164650811</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.487079417441804</v>
+        <v>1.526973517464939</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.834152128057628</v>
+        <v>1.636215588287301</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.661609221623167</v>
+        <v>1.282086629537136</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.42491625746361</v>
+        <v>1.414704447300293</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>1.473612043894192</v>
+        <v>1.682294307491887</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.859086209130965</v>
+        <v>1.570925095525777</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.745966405331527</v>
+        <v>1.672693206401207</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.351324740056278</v>
+        <v>1.988016104700453</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.809183390185651</v>
+        <v>1.544716850686395</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.390159892090138</v>
+        <v>1.411631231626804</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>1</v>
       </c>
       <c r="F243">
-        <v>1.474579515037184</v>
+        <v>1.535530629067803</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.133914572791846</v>
+        <v>1.519742369547011</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.530668141542099</v>
+        <v>1.045517265060976</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.56728382822183</v>
+        <v>1.529212930708728</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.374260794599587</v>
+        <v>1.704514863288033</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.526299162496048</v>
+        <v>1.443991023962756</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.517901064410838</v>
+        <v>1.542687364066958</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F250">
-        <v>1.473068530692831</v>
+        <v>1.234341146021971</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.592054466893559</v>
+        <v>1.474069142011744</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.318729597383453</v>
+        <v>1.57822084964518</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.288646060972467</v>
+        <v>1.707169188116136</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.404510547118263</v>
+        <v>1.404497143310625</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.459750502272564</v>
+        <v>1.243350520202548</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.591070863072746</v>
+        <v>1.503323529957114</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.319346257009915</v>
+        <v>1.421829479071091</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/19_localizer.xlsx
+++ b/sequences/19_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
     <t>face</t>
   </si>
   <si>
-    <t>dog</t>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
   </si>
   <si>
     <t>house/house035.jpg</t>
   </si>
   <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
     <t>dog/dog036.jpg</t>
   </si>
   <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
     <t>dog/dog040.jpg</t>
   </si>
   <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
     <t>house/house038.jpg</t>
   </si>
   <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
   </si>
   <si>
     <t>house/house052.jpg</t>
   </si>
   <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
     <t>house/house049.jpg</t>
   </si>
   <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
     <t>face/face049.jpg</t>
   </si>
   <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
     <t>flower/flower052.jpg</t>
   </si>
   <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
   </si>
   <si>
     <t>flower/flower062.jpg</t>
   </si>
   <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
     <t>dog/dog053.jpg</t>
   </si>
   <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
   </si>
   <si>
     <t>face/face063.jpg</t>
   </si>
   <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
   </si>
   <si>
     <t>flower/flower069.jpg</t>
   </si>
   <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
     <t>face/face068.jpg</t>
   </si>
   <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
     <t>face/face066.jpg</t>
   </si>
   <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
   </si>
   <si>
     <t>dog/dog075.jpg</t>
   </si>
   <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
   </si>
   <si>
     <t>face/face072.jpg</t>
   </si>
   <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
     <t>dog/dog064.jpg</t>
   </si>
   <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
   </si>
   <si>
     <t>face/face084.jpg</t>
   </si>
   <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
     <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.460615086610835</v>
+        <v>1.6052071262797</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.599524538704932</v>
+        <v>1.265819838990406</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.457461098787564</v>
+        <v>1.399355002607306</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.515159179256059</v>
+        <v>1.484041967033738</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.561602019317672</v>
+        <v>1.383789057586705</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.4922070669099</v>
+        <v>1.391592989117525</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.183356512126141</v>
+        <v>1.719182343672018</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.46501548468705</v>
+        <v>1.452998543451359</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.463974140062454</v>
+        <v>1.40287971075625</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.549791081654255</v>
+        <v>1.554362712001692</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.52527542082171</v>
+        <v>1.299222781325628</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.609331016624711</v>
+        <v>1.563772989926381</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.394058407497599</v>
+        <v>1.448285817507793</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.499650131321459</v>
+        <v>1.670421679881563</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.502321092622628</v>
+        <v>1.498224523096521</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1.503100915336693</v>
+        <v>1.670489028669781</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1.787672002804657</v>
+        <v>1.672495181557361</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.423181120080612</v>
+        <v>1.382643930343979</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.639199193004462</v>
+        <v>1.412567854337218</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.459547137650592</v>
+        <v>1.580784332055707</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1.536152730549516</v>
+        <v>1.4184296157611</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.682551036482062</v>
+        <v>1.579346538313215</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.597787595560781</v>
+        <v>1.438693184659709</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.49359290768236</v>
+        <v>1.538613533903933</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.620244243549051</v>
+        <v>1.544943061840198</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.495952295223065</v>
+        <v>1.470663055704178</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.508040797035916</v>
+        <v>1.378723429523875</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>1.414684493721764</v>
+        <v>1.503576556992597</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1.747865094778848</v>
+        <v>1.627794662670721</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1.387761540610039</v>
+        <v>1.526714832298838</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.376089297995858</v>
+        <v>1.367886593337287</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.655237988000486</v>
+        <v>1.717407383125335</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.863779143935181</v>
+        <v>1.712151637500532</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1.506895989156925</v>
+        <v>1.549737067160196</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.610505177912558</v>
+        <v>1.596253253968557</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.560567220131835</v>
+        <v>1.546354341731256</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>1.439036454150052</v>
+        <v>1.355723654092205</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1.392401986555974</v>
+        <v>1.690795831470894</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.289338077826456</v>
+        <v>1.75037597282927</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.381763239673049</v>
+        <v>1.39833144056264</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.404327549994736</v>
+        <v>1.510836277272643</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.316069024048141</v>
+        <v>1.367006207652493</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1.391509405291913</v>
+        <v>1.534294679774063</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.571655875791966</v>
+        <v>1.413958823921004</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.520535836278959</v>
+        <v>1.38726568184277</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.276432354232332</v>
+        <v>1.628631428862932</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.260617636443798</v>
+        <v>1.455032846187463</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.290085842596754</v>
+        <v>1.545873561350379</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.559198392396943</v>
+        <v>1.341758622417317</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1.312048480947817</v>
+        <v>1.358845762626529</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.507736539628217</v>
+        <v>1.834675540233532</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.369801901033655</v>
+        <v>1.828910332959484</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.654962072162864</v>
+        <v>1.438325196261858</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.389614475897851</v>
+        <v>1.437775806372051</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.461499043366965</v>
+        <v>1.514141976311326</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.650522750908165</v>
+        <v>1.248852132676586</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.468076944406767</v>
+        <v>1.501487173201834</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.366661647898646</v>
+        <v>1.694968087660753</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.358798739749662</v>
+        <v>1.511776555681837</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.336414205741161</v>
+        <v>1.47027962279856</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.516238835160182</v>
+        <v>1.346677350490323</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.700012289117084</v>
+        <v>1.285150023728477</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.559341468289852</v>
+        <v>1.751428282911312</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.182232490991072</v>
+        <v>1.586599404078374</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.378100313336796</v>
+        <v>1.60975410091709</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.315923972381678</v>
+        <v>1.313125352132803</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>1.405486403951504</v>
+        <v>1.597476961692505</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.52233318520432</v>
+        <v>1.282751715418164</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.450773768065752</v>
+        <v>1.676082227585356</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.354989066604098</v>
+        <v>1.357152460525548</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.389767777839876</v>
+        <v>1.582405279659047</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.259507022550967</v>
+        <v>1.904204985952444</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>1.450792495898085</v>
+        <v>1.600474620004218</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.915811945837278</v>
+        <v>1.48421752375762</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.491702332895583</v>
+        <v>1.678567123994945</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.451848578661664</v>
+        <v>1.890634759734221</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.461789769345736</v>
+        <v>1.309969473091567</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.50029081941689</v>
+        <v>1.580215820659586</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>1.444270167713809</v>
+        <v>1.463261865662909</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.683638345652825</v>
+        <v>1.303946368231487</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.7458035629097</v>
+        <v>1.631518283232294</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.284276659829956</v>
+        <v>1.374022930470289</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.534446752844662</v>
+        <v>1.682914927732542</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.341463523741666</v>
+        <v>1.374380946877216</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.484322914930293</v>
+        <v>1.38602972540176</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>1.458042443876511</v>
+        <v>1.540953455955</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.473201089262793</v>
+        <v>1.430123194853651</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.412514650513644</v>
+        <v>1.043430735180399</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1.512753130006975</v>
+        <v>1.726846592410104</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>1.689326793079061</v>
+        <v>1.464540255021638</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.681548456738556</v>
+        <v>1.485852725595844</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.281761537648271</v>
+        <v>1.454375748227414</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.285592881716685</v>
+        <v>1.605765076994345</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.629696070114005</v>
+        <v>1.307432010590786</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>1.4326973711856</v>
+        <v>1.707696270261802</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>1.766331061249723</v>
+        <v>1.697602823972545</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.275603358635666</v>
+        <v>1.296066111775803</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.529269144785214</v>
+        <v>1.420600400247348</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.583696594990771</v>
+        <v>1.468639415239033</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.307694908886857</v>
+        <v>1.444971496092781</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.196678494997256</v>
+        <v>1.579442016832038</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.628121208790608</v>
+        <v>1.72462090046022</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.431892020792122</v>
+        <v>1.624741067129651</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.556902287235866</v>
+        <v>1.431231426111891</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.498481132216741</v>
+        <v>1.209041390365004</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.60632650372284</v>
+        <v>1.097881307795516</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.455369177654673</v>
+        <v>1.465810790426841</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.322572498392985</v>
+        <v>1.307734891939447</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.294524958841013</v>
+        <v>1.368932491256547</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.436887382481703</v>
+        <v>1.589681884505157</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.645826530304584</v>
+        <v>1.425276830418304</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.749218821362297</v>
+        <v>1.422701864814551</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.215440467282103</v>
+        <v>1.576914568926254</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>1.382120965245502</v>
+        <v>1.520788306194235</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.614495655199203</v>
+        <v>1.558568186761732</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.318313642192029</v>
+        <v>1.416019346144357</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.530345465617401</v>
+        <v>1.686801518064192</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.772099498582596</v>
+        <v>1.457764923575356</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>1.724726934166094</v>
+        <v>1.554430957857081</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.296946391514858</v>
+        <v>1.717376007517531</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>1.655906267315472</v>
+        <v>1.47185120066935</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.556655504007205</v>
+        <v>1.57145897545409</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.823481635242419</v>
+        <v>1.26013851135816</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.638152122345196</v>
+        <v>1.492109398977254</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>1.670506475338223</v>
+        <v>1.71024738922943</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.739516680731442</v>
+        <v>1.205683610014406</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>1.2625463109029</v>
+        <v>1.400470496922854</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
-        <v>1.568938847644672</v>
+        <v>1.398854130224374</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.379195587598657</v>
+        <v>1.459096245975841</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>1.313555953717373</v>
+        <v>1.501857951060381</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.536059024771577</v>
+        <v>1.506749288865252</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.318886289058767</v>
+        <v>1.592611293318719</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.243997406065606</v>
+        <v>1.591242873498488</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.546530864687952</v>
+        <v>1.556260594346996</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.49986088539334</v>
+        <v>1.481590155740931</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.594397692727559</v>
+        <v>1.596515435258748</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.443559463477106</v>
+        <v>1.41723291393681</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.497775482028934</v>
+        <v>1.703791552230387</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.79019581545378</v>
+        <v>1.624066067576952</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.750554937301596</v>
+        <v>1.384306527099457</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.590498784669153</v>
+        <v>1.822378967466151</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.696910698851656</v>
+        <v>1.580445301835048</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.853094873174846</v>
+        <v>1.229222548692102</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.419886315306357</v>
+        <v>1.720980017435751</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.216470825292839</v>
+        <v>1.483625389527625</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>1.671394482389745</v>
+        <v>1.768836194284876</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>1.369732328861478</v>
+        <v>1.261191218468195</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.619482535912667</v>
+        <v>1.408505367110627</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.412555766820965</v>
+        <v>1.442558288394304</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.606367228764434</v>
+        <v>1.921585017391294</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="F152">
-        <v>1.469525219342794</v>
+        <v>1.527466951839895</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1.436763026556027</v>
+        <v>1.39358905110787</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.638706898648002</v>
+        <v>1.403529770683247</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.656345378470657</v>
+        <v>1.380360289327036</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.643034721819057</v>
+        <v>1.502476951015605</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.640113571858169</v>
+        <v>1.763626432664394</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.641900905861807</v>
+        <v>1.400312517442921</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.497340553599518</v>
+        <v>1.660608467294008</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>1.369922440507702</v>
+        <v>1.641307076281649</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.580810742585859</v>
+        <v>1.47644650235392</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.168769349176287</v>
+        <v>1.45798809350683</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>1.400427152465882</v>
+        <v>1.330108365970497</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.522364331991966</v>
+        <v>1.663096790034366</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.485129964660231</v>
+        <v>1.422963502448159</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.43808887578971</v>
+        <v>1.514115256302538</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.354400442991563</v>
+        <v>1.335735000291708</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.483241814543587</v>
+        <v>1.547237253875313</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.645584281974609</v>
+        <v>1.57090910320433</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.378606995138243</v>
+        <v>1.679684290670148</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.461243407815664</v>
+        <v>1.586116721021333</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172">
-        <v>1.651427198257394</v>
+        <v>1.502507915313141</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.441815579275575</v>
+        <v>1.421173462630609</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="F174">
-        <v>1.427091179317368</v>
+        <v>1.363261454807652</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.437729869604146</v>
+        <v>1.570045848826383</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.282569479420328</v>
+        <v>1.582753734741799</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>1.430449048558773</v>
+        <v>1.710995146679394</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.051030096747775</v>
+        <v>1.890978897431023</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.680639205577842</v>
+        <v>1.76753036788145</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.542499080626491</v>
+        <v>1.474229370044045</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.654546526385791</v>
+        <v>1.489398724461681</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.402565005065607</v>
+        <v>1.611258472470471</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.560992247544718</v>
+        <v>1.509817621723268</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.375918981701427</v>
+        <v>1.748224493392724</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.604623863187911</v>
+        <v>1.336434513818831</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.580796213906855</v>
+        <v>1.834013862673207</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.440726294556879</v>
+        <v>1.754922475279314</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.519203549773833</v>
+        <v>1.536981896753126</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>1.719668372551549</v>
+        <v>1.44305587442329</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.606432562370516</v>
+        <v>1.541707883954164</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>1.820829781560631</v>
+        <v>1.524814445980776</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.442719517516539</v>
+        <v>1.665407090414608</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.518451386361307</v>
+        <v>1.462355542995973</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.658688356980019</v>
+        <v>1.576928898204925</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.757951513894796</v>
+        <v>1.568824734897282</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.433695882274841</v>
+        <v>1.545645316908802</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.43470763228316</v>
+        <v>1.591198775905148</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.456077952887098</v>
+        <v>1.498547750715529</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.565181087561705</v>
+        <v>1.361528210992517</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.322933171979513</v>
+        <v>1.54851983596558</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>1.465923783229145</v>
+        <v>1.367498697823191</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>1.50140968717686</v>
+        <v>1.542622610710027</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.577490343872589</v>
+        <v>1.8570534608202</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>1.353562370926038</v>
+        <v>1.607520243582415</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.605543302375295</v>
+        <v>1.627864618466353</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.628356544110034</v>
+        <v>1.535984639516991</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.745745340010354</v>
+        <v>1.614304840885722</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.612194990632379</v>
+        <v>1.383980214406744</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.355299361149841</v>
+        <v>1.488634695792204</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.438432878738715</v>
+        <v>1.493774993916989</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.660797650192992</v>
+        <v>1.204975322637675</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>1.569092214321362</v>
+        <v>1.560219428144977</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.503706084198725</v>
+        <v>1.648748349035144</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214">
-        <v>1.347397360380009</v>
+        <v>1.217004770411147</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.395928580741489</v>
+        <v>1.368659619785009</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.51200190338378</v>
+        <v>1.540894645879752</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.751715557296532</v>
+        <v>1.479819533475889</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.508841024775639</v>
+        <v>1.462314323865044</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.459608021090141</v>
+        <v>1.765304842649772</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>1.347688485263483</v>
+        <v>1.623392163653787</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.553376105825558</v>
+        <v>1.270507656042223</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.588706434284031</v>
+        <v>1.590553705028733</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.466337585830151</v>
+        <v>1.491166445027488</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.29302807133688</v>
+        <v>1.443533592199741</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.426474960053514</v>
+        <v>1.826316249344418</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>1.44257886343369</v>
+        <v>1.378560682025007</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.598821815888039</v>
+        <v>1.259086710702852</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>1.505436823193213</v>
+        <v>1.332647642838485</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.43025141888091</v>
+        <v>1.749291217676411</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.719092942931992</v>
+        <v>1.654675182860483</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.755770226214407</v>
+        <v>1.502087165438593</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.70314164650811</v>
+        <v>1.544873074972617</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.526973517464939</v>
+        <v>1.366146955250829</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>1</v>
       </c>
       <c r="F234">
-        <v>1.636215588287301</v>
+        <v>1.514481305218369</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.282086629537136</v>
+        <v>1.836481110393567</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.414704447300293</v>
+        <v>1.435710974813967</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.682294307491887</v>
+        <v>1.265751989684541</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.570925095525777</v>
+        <v>1.666154428618065</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.672693206401207</v>
+        <v>1.454878240749198</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.988016104700453</v>
+        <v>1.284956931129142</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.544716850686395</v>
+        <v>1.748264134698054</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242">
-        <v>1.411631231626804</v>
+        <v>1.579235418084341</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>1.535530629067803</v>
+        <v>1.301673793257947</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.519742369547011</v>
+        <v>1.472220184543821</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.045517265060976</v>
+        <v>1.509090910996189</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.529212930708728</v>
+        <v>1.564033665953563</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.704514863288033</v>
+        <v>1.371286205467199</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.443991023962756</v>
+        <v>1.55321443120033</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.542687364066958</v>
+        <v>1.327153559408756</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>1.234341146021971</v>
+        <v>1.326993401169608</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.474069142011744</v>
+        <v>1.701801258804724</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.57822084964518</v>
+        <v>1.638235739871444</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.707169188116136</v>
+        <v>1.340084675112611</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.404497143310625</v>
+        <v>1.492253045292695</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.243350520202548</v>
+        <v>1.37234202924012</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.503323529957114</v>
+        <v>1.286892503759336</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.421829479071091</v>
+        <v>1.537085340143334</v>
       </c>
     </row>
   </sheetData>
